--- a/results/manual_perceptron_wyniki_classification_our_train_test.xlsx
+++ b/results/manual_perceptron_wyniki_classification_our_train_test.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,7 +524,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="D2" t="n">
         <v>9</v>
@@ -536,34 +536,34 @@
         <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3160381262065581</v>
+        <v>0.3339766362425737</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8572156731909847</v>
+        <v>0.8491251482799527</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8570018430534548</v>
+        <v>0.8488367430909034</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8575200086421324</v>
+        <v>0.8491450062394154</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8571781417462455</v>
+        <v>0.8489083586281878</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3187274835625197</v>
+        <v>0.3394845138433463</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8534089645200756</v>
+        <v>0.8499610721832944</v>
       </c>
       <c r="N2" t="n">
-        <v>0.853802093111615</v>
+        <v>0.8500480337349755</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8534108182678263</v>
+        <v>0.849961948626192</v>
       </c>
       <c r="P2" t="n">
-        <v>0.8536064108517269</v>
+        <v>0.8500049890009947</v>
       </c>
     </row>
     <row r="3">
@@ -574,7 +574,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05</v>
+        <v>0.005</v>
       </c>
       <c r="D3" t="n">
         <v>9</v>
@@ -583,37 +583,37 @@
         <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3153997976057301</v>
+        <v>0.3181139860465447</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8582670192434426</v>
+        <v>0.8559645610913406</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8581914376235619</v>
+        <v>0.8556319718881987</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8581323833996197</v>
+        <v>0.8561335245688194</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8580837008385533</v>
+        <v>0.8558002786095092</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3175101076983191</v>
+        <v>0.3201224312687553</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8545211878545211</v>
+        <v>0.8548548548548549</v>
       </c>
       <c r="N3" t="n">
-        <v>0.8546117758065468</v>
+        <v>0.8550335356163692</v>
       </c>
       <c r="O3" t="n">
-        <v>0.854522076724237</v>
+        <v>0.8548561024705188</v>
       </c>
       <c r="P3" t="n">
-        <v>0.8545669239115898</v>
+        <v>0.8549448098374343</v>
       </c>
     </row>
     <row r="4">
@@ -621,7 +621,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>0.01</v>
@@ -633,37 +633,37 @@
         <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3134520671813198</v>
+        <v>0.3169250466192468</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8583329214445763</v>
+        <v>0.8562199321207328</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8579827624404101</v>
+        <v>0.8558298050588314</v>
       </c>
       <c r="J4" t="n">
-        <v>0.858363756164899</v>
+        <v>0.856249984659181</v>
       </c>
       <c r="K4" t="n">
-        <v>0.858091537072579</v>
+        <v>0.8559627929396519</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3169035329443492</v>
+        <v>0.3204532971964326</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8542987431876321</v>
+        <v>0.8527416305194083</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8545945945945946</v>
+        <v>0.852870329533254</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8543003495382374</v>
+        <v>0.8527426925528168</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8544474467342112</v>
+        <v>0.8528065062672748</v>
       </c>
     </row>
     <row r="5">
@@ -671,10 +671,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="D5" t="n">
         <v>9</v>
@@ -686,45 +686,45 @@
         <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3076576805106348</v>
+        <v>0.3120146045247023</v>
       </c>
       <c r="H5" t="n">
-        <v>0.860690984578885</v>
+        <v>0.8585604899828655</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8606588104181251</v>
+        <v>0.8583137030723754</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8608212055857283</v>
+        <v>0.8588359340477654</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8606577923413153</v>
+        <v>0.8584938306705879</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3102689685899899</v>
+        <v>0.3144930130058981</v>
       </c>
       <c r="M5" t="n">
-        <v>0.8599710821933044</v>
+        <v>0.8550772995217439</v>
       </c>
       <c r="N5" t="n">
-        <v>0.8602400879763683</v>
+        <v>0.855216059172877</v>
       </c>
       <c r="O5" t="n">
-        <v>0.8599726020212256</v>
+        <v>0.8550783986952684</v>
       </c>
       <c r="P5" t="n">
-        <v>0.8601063242023174</v>
+        <v>0.855147223393972</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="D6" t="n">
         <v>9</v>
@@ -736,45 +736,45 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3155352171316833</v>
+        <v>0.329496037607915</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8588107124027943</v>
+        <v>0.850543075326216</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8586224419099195</v>
+        <v>0.8503908357648842</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8586370941070594</v>
+        <v>0.8506238637019027</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8585496662346273</v>
+        <v>0.8504221901515276</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3203815915247505</v>
+        <v>0.3346029867588532</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8558558558558559</v>
+        <v>0.8515181848515182</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8560762818877652</v>
+        <v>0.8515289288096544</v>
       </c>
       <c r="O6" t="n">
-        <v>0.8558572395583863</v>
+        <v>0.8515184922749279</v>
       </c>
       <c r="P6" t="n">
-        <v>0.8559667467098149</v>
+        <v>0.8515237105103128</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05</v>
+        <v>0.005</v>
       </c>
       <c r="D7" t="n">
         <v>9</v>
@@ -783,42 +783,42 @@
         <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>0.311756328381661</v>
+        <v>0.3162134482425001</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8589898840121259</v>
+        <v>0.8563537959667854</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8592594684420066</v>
+        <v>0.8560682847447464</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8590006704349399</v>
+        <v>0.8562996138430253</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8590378272274245</v>
+        <v>0.8561040639130008</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3152164517475291</v>
+        <v>0.3207164410056326</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8555221888555222</v>
+        <v>0.8525191858525192</v>
       </c>
       <c r="N7" t="n">
-        <v>0.8556739173437466</v>
+        <v>0.8526600734301545</v>
       </c>
       <c r="O7" t="n">
-        <v>0.8555233375161805</v>
+        <v>0.8525202973648063</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8555986208046944</v>
+        <v>0.8525901796686587</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="n">
         <v>16</v>
@@ -833,48 +833,48 @@
         <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3111731641455078</v>
+        <v>0.3136899351427446</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8606631820877818</v>
+        <v>0.858077550415184</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8605161710607087</v>
+        <v>0.8579331692447818</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8605601358420494</v>
+        <v>0.8580533424932385</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8604557142302968</v>
+        <v>0.8579081425177856</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3127194535306158</v>
+        <v>0.3172799447655308</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8557446335224113</v>
+        <v>0.8539650761872984</v>
       </c>
       <c r="N8" t="n">
-        <v>0.8559237591970462</v>
+        <v>0.8543030829894973</v>
       </c>
       <c r="O8" t="n">
-        <v>0.8557458811490822</v>
+        <v>0.8539667938674447</v>
       </c>
       <c r="P8" t="n">
-        <v>0.8558348109304513</v>
+        <v>0.8541349053276199</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
         <v>16</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="D9" t="n">
         <v>9</v>
@@ -883,37 +883,2837 @@
         <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3046400294397741</v>
+        <v>0.311345879120532</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8633095673520496</v>
+        <v>0.860273947212337</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8636961553890969</v>
+        <v>0.8601095455889365</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8633228084894399</v>
+        <v>0.8604309732660443</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8634160001736353</v>
+        <v>0.8601897191239426</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3041695677124474</v>
+        <v>0.3127721932705662</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8619730841953064</v>
+        <v>0.8560783005227449</v>
       </c>
       <c r="N9" t="n">
-        <v>0.8620438359358938</v>
+        <v>0.8562611681303702</v>
       </c>
       <c r="O9" t="n">
-        <v>0.8619738618235366</v>
+        <v>0.8560795605239511</v>
       </c>
       <c r="P9" t="n">
-        <v>0.862008847459667</v>
+        <v>0.8561703546966817</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="n">
+        <v>32</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.3279256182815894</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.8518775948991697</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.8516058963032624</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.8517570408179556</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.8515995113219703</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.3322358146812676</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.8512957401846291</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.851321983856127</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.8512962207909935</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.8513091021286441</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="n">
+        <v>32</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.3148855653012576</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.857071512126005</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.8569303207787929</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.8571727838617001</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.8569705421565779</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.3185735193976722</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.853075297519742</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.8532602135926041</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.8530765698542073</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.8531683818411178</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="n">
+        <v>32</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D12" t="n">
+        <v>9</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.3122522138391328</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.8587499588111243</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.8583871475514079</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.8588782624498427</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.8585550185226292</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.3155217951275019</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.8545211878545211</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.8548357597265965</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.8545228436895087</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.8546792730667698</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="n">
+        <v>32</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D13" t="n">
+        <v>9</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.308823110529594</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.8609463556082773</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.8608943710626435</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.8609580253019058</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.8608450551011833</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.3122983733967744</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.8558558558558559</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.8561174885086515</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.8558573632624624</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.8559874061232504</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="n">
+        <v>64</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D14" t="n">
+        <v>9</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.3262101525155858</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.8526838671411626</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.8525307335362984</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.8525827341727598</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.8524709084858515</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.3305736424304452</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.85229674118563</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.8523122771684403</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.8522971104707089</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.8523046937521019</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="n">
+        <v>64</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D15" t="n">
+        <v>9</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.3139200919763696</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.857488549492553</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.8571185537984334</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.8574883565375025</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.8572245214875767</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.3175918372098212</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.854076298520743</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.8543452528212461</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.8540778306461509</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.8542115208036899</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="n">
+        <v>64</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D16" t="n">
+        <v>9</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.3106295862703578</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.8598898609463556</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.8596141385406048</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.8597568568055663</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.8596058889545175</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.3146674630309396</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.8546324101879658</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.8550428647916226</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.8546343010620737</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.8548385341093508</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="n">
+        <v>64</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D17" t="n">
+        <v>9</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.3067283780350706</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.8618916403057862</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.8617362945959365</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.8617495213910589</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.8616625500539626</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.3107250629036569</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.8587476365254143</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.8591574110071608</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.8587495150800217</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.8589534146186489</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D18" t="n">
+        <v>9</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" t="n">
+        <v>3</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.3322609091571101</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.8507932977461448</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.8506445294050684</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.8507754220719249</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.8506250310187909</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.3367414630487008</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.8509620731842954</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.8510673687755506</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.8509630362324291</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.8510151993062561</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D19" t="n">
+        <v>9</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.3177735517347559</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.8565206109134046</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.8563889167058774</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.8567237462155907</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.8564711322803253</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.3216463260944175</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.8535201868535202</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.8537843990699652</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.8535217066016412</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.853653032626383</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2</v>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D20" t="n">
+        <v>9</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.3139376928766926</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.8583051189534731</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.8579735704947915</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.8583187866890222</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.8580624514604713</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.3156283069692455</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.8557446335224113</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.8559851461293126</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.855746079075604</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.8558655959079401</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2</v>
+      </c>
+      <c r="B21" t="n">
+        <v>8</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D21" t="n">
+        <v>9</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.3152077703097833</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.8574936981020167</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.857314195991547</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.8575577273172228</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.8573540000185148</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.3153427936508502</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.8551885218551886</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.8554007346442857</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.8551898808086487</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.8552952947311486</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2</v>
+      </c>
+      <c r="B22" t="n">
+        <v>16</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D22" t="n">
+        <v>9</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.3264242342102718</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.8512937425860024</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.8512022977409441</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.8512546112816168</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.8511417149020971</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.3317859657409669</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.8502947391836281</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.8503610707017977</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.8502955042969847</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.8503282862354814</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2</v>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D23" t="n">
+        <v>9</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.314573461244353</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.8589950326215896</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.8586594388293796</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.8589377529444124</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.8587153485305777</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.3189225723506903</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.8536314091869648</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.8540247840583896</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.853633262937467</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.8538289786151755</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2</v>
+      </c>
+      <c r="B24" t="n">
+        <v>16</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D24" t="n">
+        <v>9</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.3120891423777127</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.8591340450771057</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.8588887643326725</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.8590784776711605</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.8588989066801116</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.3133057970806019</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.8566344121899677</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.8568673343430837</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.8566358330133521</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.8567515680398267</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2</v>
+      </c>
+      <c r="B25" t="n">
+        <v>16</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D25" t="n">
+        <v>9</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" t="n">
+        <v>3</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.3060703271479014</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.8625589000922631</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.8627024285706333</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.8626044936398782</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.8625689866520878</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.3076392124150923</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.8597486375264153</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.8599226488080238</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.8597498604618021</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.8598362459542449</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2</v>
+      </c>
+      <c r="B26" t="n">
+        <v>32</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D26" t="n">
+        <v>9</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.3223500451217335</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.854935868920522</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.8546083588469194</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.8551634380674141</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.8548036364590139</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.3270175689557827</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.8534089645200756</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.8534716207776114</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.8534097049311413</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.8534406617314009</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2</v>
+      </c>
+      <c r="B27" t="n">
+        <v>32</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D27" t="n">
+        <v>9</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.3125997844137492</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.8593564650059312</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.8589209244037279</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.8593823654885107</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.859072580519797</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.3156936566739375</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.8538538538538538</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.8541772983820642</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.8538555344214014</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.8540163860943393</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" t="n">
+        <v>32</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D28" t="n">
+        <v>9</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.3078788148138936</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.8618308867141163</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.8616428157802448</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.861830131531072</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.8616568705214475</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.3109935440974981</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.8577466355244133</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.8580139883534706</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.8577481553248172</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.8578810512456138</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2</v>
+      </c>
+      <c r="B29" t="n">
+        <v>32</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D29" t="n">
+        <v>9</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.3053844228006216</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.8622757265717675</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.8624822520650662</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.862180801283907</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.8622475672787736</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.3087654005687651</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.8603047491936381</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.8605122278661355</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.8603060834695728</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.860409143320382</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2</v>
+      </c>
+      <c r="B30" t="n">
+        <v>64</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D30" t="n">
+        <v>9</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.3194685245681825</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.8556257825886384</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.8554907492326558</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.8557668382402978</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.8555492086598642</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.3242280112896206</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.8546324101879658</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.8547062264666405</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.8546332124662041</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.8546697179070349</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2</v>
+      </c>
+      <c r="B31" t="n">
+        <v>64</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D31" t="n">
+        <v>9</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.3102683962572919</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.861029763081587</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.8607021167717841</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.8609063341966942</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.8607251049968402</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.314055022881025</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.8560783005227449</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.856394246784</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.8560799563769946</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.8562370727396367</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2</v>
+      </c>
+      <c r="B32" t="n">
+        <v>64</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D32" t="n">
+        <v>9</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.3063768332226002</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.8612521830104125</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.8613270962450221</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.861165716045539</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.8611631451004713</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.3112875664193483</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.8585251918585252</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.8588338542928498</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.8585268230022287</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.8586803112018737</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2</v>
+      </c>
+      <c r="B33" t="n">
+        <v>64</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D33" t="n">
+        <v>9</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.300125414103921</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.8646945432977462</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.8649356065360443</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.864553568645309</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.8646568981545747</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.3056888000457416</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.8605271938605272</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.8607504953189291</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.860528577620844</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.8606395221644014</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>3</v>
+      </c>
+      <c r="B34" t="n">
+        <v>8</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D34" t="n">
+        <v>9</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2</v>
+      </c>
+      <c r="F34" t="n">
+        <v>3</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.3293490296897034</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.8494865806642943</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.8492258053293357</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.8496131630308188</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.8493354330604023</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.3337070726284291</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.8509620731842954</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.8510162601626017</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.8509627640834616</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.8509895112822955</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>3</v>
+      </c>
+      <c r="B35" t="n">
+        <v>8</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D35" t="n">
+        <v>9</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.318010159790512</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.8556082773164624</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.855342302799965</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.855485264417021</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.8553315856562971</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.3222093207841845</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.8505171838505172</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.8508567582265729</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.8505189138584193</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.8506878024993995</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>3</v>
+      </c>
+      <c r="B36" t="n">
+        <v>8</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D36" t="n">
+        <v>9</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2</v>
+      </c>
+      <c r="F36" t="n">
+        <v>3</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.3149295505334415</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.8588107124027943</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.8587539602801334</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.8589024945738636</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.8587429682213017</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.316409047929526</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.8558558558558559</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.8559980664811691</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.855856967409419</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.8559275111302724</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>3</v>
+      </c>
+      <c r="B37" t="n">
+        <v>8</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D37" t="n">
+        <v>9</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2</v>
+      </c>
+      <c r="F37" t="n">
+        <v>3</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.3133006891778872</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.8591391936865691</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.8595201265972474</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.8592528546819754</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.8592912846436577</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.3149849378990418</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.8560783005227449</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.8561963795455281</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.8560793131157989</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.8561378423288111</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>3</v>
+      </c>
+      <c r="B38" t="n">
+        <v>16</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D38" t="n">
+        <v>9</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.3240653426756895</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.8526282621589562</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.8522755893004546</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.8526510191561872</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.8523816764209369</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.3290944271368267</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.8521855188521855</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.8522939107449365</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.8521864942858612</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.852240199130703</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>3</v>
+      </c>
+      <c r="B39" t="n">
+        <v>16</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D39" t="n">
+        <v>9</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.3122856085019234</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.859806453473046</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.8595898231107459</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.8596353569358764</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.8595330318220987</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.3149934882932913</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.8551885218551886</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.8554760389405101</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.8551901034759856</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.8553330473113904</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>3</v>
+      </c>
+      <c r="B40" t="n">
+        <v>16</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D40" t="n">
+        <v>9</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.3109301986430686</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.860412959667853</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.8605474183914663</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.8606269767030988</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.8605015208915904</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.3135905458639325</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.8549660771882994</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.8551556111627974</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.8549673619165621</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.8550614761785013</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>3</v>
+      </c>
+      <c r="B41" t="n">
+        <v>16</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D41" t="n">
+        <v>9</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2</v>
+      </c>
+      <c r="F41" t="n">
+        <v>3</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.3063793137374697</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.8619142941874259</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.862460167208461</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.8620549361001648</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.8621701413977698</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.3068281316687958</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.8584139695250806</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.858414384324204</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.8584140296256417</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.8584142069748861</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>3</v>
+      </c>
+      <c r="B42" t="n">
+        <v>32</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D42" t="n">
+        <v>9</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.3182978396694218</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.8568212897060761</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.8563909172877797</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.85683049243549</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.8565319478737188</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.3209125312308432</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.8544099655210766</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.8545547743638662</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.854411089427161</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.8544829258552054</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>3</v>
+      </c>
+      <c r="B43" t="n">
+        <v>32</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D43" t="n">
+        <v>9</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2</v>
+      </c>
+      <c r="F43" t="n">
+        <v>3</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.3101818841285872</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.8600515272835113</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.8601196189596816</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.8601848010831969</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.8600686003673047</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.313387920966868</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.857079301523746</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.8572383281874441</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.8570804749444816</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.8571593942984563</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>3</v>
+      </c>
+      <c r="B44" t="n">
+        <v>32</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D44" t="n">
+        <v>9</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.3050288313392537</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.8624528387373138</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.8626738643571542</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.8624274463509395</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.8624634828456912</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.3091716671510576</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.8578578578578578</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.8579597571152386</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.85785879625048</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.8579092737125288</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>3</v>
+      </c>
+      <c r="B45" t="n">
+        <v>32</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D45" t="n">
+        <v>9</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.2991020836598819</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.8651167292737577</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.8655215637309169</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.8650494999539683</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.8651945659695657</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.3053276114337714</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.8607496385274163</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.8607541188998322</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.8607498347313544</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.8607519768102624</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>3</v>
+      </c>
+      <c r="B46" t="n">
+        <v>64</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D46" t="n">
+        <v>9</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2</v>
+      </c>
+      <c r="F46" t="n">
+        <v>3</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.3169931681375716</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.8575596003031501</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.8573186964758027</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.8577134557941385</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.857432148583129</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.3214971818670579</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.8539650761872984</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.8542043928811858</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0.8539665217184773</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.8540854407374695</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>3</v>
+      </c>
+      <c r="B47" t="n">
+        <v>64</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D47" t="n">
+        <v>9</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.3074342077130251</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.8613633929748253</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.8613820677060576</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.8612189815341517</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.8612157396391369</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.3136039288281542</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.8557446335224113</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.8561042049482461</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.8557464007062019</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.8559252654338103</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3</v>
+      </c>
+      <c r="B48" t="n">
+        <v>64</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D48" t="n">
+        <v>9</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.3020151312270314</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.8634485798075656</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.8635421589260976</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.8632807743462196</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.8633307938918718</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.308738111799916</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.8567456345234123</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.8569510768511124</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.8567469687553193</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.8568490106481822</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>3</v>
+      </c>
+      <c r="B49" t="n">
+        <v>64</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D49" t="n">
+        <v>9</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.296153477223647</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.8664841999472782</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.867312469761365</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.8664338337185673</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.8667773039963076</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.3052272812675988</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.8556334111889667</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.8556737072371599</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0.8556340031826585</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.8556538547493222</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>4</v>
+      </c>
+      <c r="B50" t="n">
+        <v>8</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D50" t="n">
+        <v>9</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2</v>
+      </c>
+      <c r="F50" t="n">
+        <v>3</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.6926148911055976</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.6594637620271516</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.7397163868295374</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.661572740636575</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.6958546094461927</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.6925968325152643</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.6704482260037815</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.7488212917706218</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.6704794324654915</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.7074882245193853</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>4</v>
+      </c>
+      <c r="B51" t="n">
+        <v>8</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D51" t="n">
+        <v>9</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.3154764436372599</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.8578777843679979</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.8575469901631497</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.8579745050185326</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.8576779186184974</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.3190800039626322</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.8538538538538538</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.8539546234325984</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.8538547921969448</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.8539047048969179</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>4</v>
+      </c>
+      <c r="B52" t="n">
+        <v>8</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D52" t="n">
+        <v>9</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2</v>
+      </c>
+      <c r="F52" t="n">
+        <v>3</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.3166539578547099</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.8583782292078554</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.8584482516720648</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.8584166688665341</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.858344127211088</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.3179358251281005</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.8535201868535202</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.8535849748538296</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0.8535209396363694</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.8535529560440877</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>4</v>
+      </c>
+      <c r="B53" t="n">
+        <v>8</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D53" t="n">
+        <v>9</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.3132312924686819</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.8598342559641492</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.8604758090022067</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.859930132363691</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.8601139269520571</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.3165309237520972</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.8541875208541875</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.8541953563595097</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.8541872592718679</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.8541913077965002</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>4</v>
+      </c>
+      <c r="B54" t="n">
+        <v>16</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D54" t="n">
+        <v>9</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2</v>
+      </c>
+      <c r="F54" t="n">
+        <v>3</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.3290844917160695</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.8504092114801635</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.8503132327652203</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.8503941992483353</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.8502705253650247</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.3324490719832223</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.8499610721832944</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.8501896624202023</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.8499624929241268</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.8500760624952937</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>4</v>
+      </c>
+      <c r="B55" t="n">
+        <v>16</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D55" t="n">
+        <v>9</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2</v>
+      </c>
+      <c r="F55" t="n">
+        <v>3</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.3128850566016068</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.8582721678529064</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.8582240721247416</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.8584526716724946</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.8582502925726443</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.3147851418717533</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.8569680791903014</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.8571171549260468</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0.8569692154984383</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.8570431788280618</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>4</v>
+      </c>
+      <c r="B56" t="n">
+        <v>16</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D56" t="n">
+        <v>9</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2</v>
+      </c>
+      <c r="F56" t="n">
+        <v>3</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.3030120273217119</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.8634485798075656</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.8640207309224786</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.8633964471602699</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.8636161039190831</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.3058411591374644</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.8589700811923034</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.8589772924078757</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.8589698320395536</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.8589735622075159</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>4</v>
+      </c>
+      <c r="B57" t="n">
+        <v>16</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D57" t="n">
+        <v>9</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.3022488336751091</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.8639160735468565</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.8647093538097641</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.863918207474233</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.8642146410699911</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.3052418428364775</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.8579690801913025</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.8580397315818356</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.8579682990986426</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.8580040138534746</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>4</v>
+      </c>
+      <c r="B58" t="n">
+        <v>32</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D58" t="n">
+        <v>9</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2</v>
+      </c>
+      <c r="F58" t="n">
+        <v>3</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.3178267945907797</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.8569376482799527</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.8565684522264299</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.8569503515841694</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.856682098910229</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.3222641717932864</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.8537426315204093</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.8540156937548838</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.8537441760120972</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.853879913299108</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>4</v>
+      </c>
+      <c r="B59" t="n">
+        <v>32</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D59" t="n">
+        <v>9</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.3092050022774392</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.8612799855015157</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.8613236022033971</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.8612392400648853</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.8611988496320477</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.3136439260177742</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.8577466355244133</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.8579722079625827</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.8577480316207411</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.8578601051461995</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>4</v>
+      </c>
+      <c r="B60" t="n">
+        <v>32</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D60" t="n">
+        <v>9</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.3033898736235681</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.8634207773164624</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.8638497228671753</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.8633314427002095</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.8635051723051929</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.3063777288090645</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.8598598598598599</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.8598702454163805</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.8598595612364865</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.8598649032932446</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>4</v>
+      </c>
+      <c r="B61" t="n">
+        <v>32</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D61" t="n">
+        <v>9</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.3005321302438331</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.8644824205878476</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.8650118844295412</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.8645174178492158</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.864677159403372</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.3037616542281065</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.8600823045267489</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.8600849338950003</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.8600821543510188</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.8600835441207639</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>4</v>
+      </c>
+      <c r="B62" t="n">
+        <v>64</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D62" t="n">
+        <v>9</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.3154995287434354</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.8581887603795968</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.8579267016046583</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.8583017234311348</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.8580305257795969</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.3201226557705009</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.8534089645200756</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.8536688085096142</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.8534104718964132</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.853539620655648</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>4</v>
+      </c>
+      <c r="B63" t="n">
+        <v>64</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D63" t="n">
+        <v>9</v>
+      </c>
+      <c r="E63" t="n">
+        <v>2</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.3036032223507377</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.8639490246474232</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.8641615427590221</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.8637049873564288</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.8638496587886636</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.3099508226990075</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.8583027471916361</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.858354162276612</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0.8583034134407943</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.8583287871085697</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>4</v>
+      </c>
+      <c r="B64" t="n">
+        <v>64</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D64" t="n">
+        <v>9</v>
+      </c>
+      <c r="E64" t="n">
+        <v>2</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.3009579888608814</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.8648665068538289</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.8656278971491658</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.864944518636347</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.8651904784870614</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.3072818703129324</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.8579690801913025</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.857985935683786</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0.857969461916958</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0.8579776987212951</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>4</v>
+      </c>
+      <c r="B65" t="n">
+        <v>64</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D65" t="n">
+        <v>9</v>
+      </c>
+      <c r="E65" t="n">
+        <v>2</v>
+      </c>
+      <c r="F65" t="n">
+        <v>3</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.295372935983996</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.8675581998813761</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.8683274291334969</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.8676581460579026</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.8678996390724565</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.3068467465531399</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.8575241908575242</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.8575460480021536</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0.857523756130774</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.857534901921593</v>
       </c>
     </row>
   </sheetData>
@@ -955,7 +3755,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-13 09:47:32</t>
+          <t>2025-11-13 11:19:53</t>
         </is>
       </c>
     </row>

--- a/results/manual_perceptron_wyniki_classification_our_train_test.xlsx
+++ b/results/manual_perceptron_wyniki_classification_our_train_test.xlsx
@@ -536,34 +536,34 @@
         <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3339766362425737</v>
+        <v>0.3313203933556494</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8491251482799527</v>
+        <v>0.849180753262159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8488367430909034</v>
+        <v>0.8490255028207925</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8491450062394154</v>
+        <v>0.8492587438011391</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8489083586281878</v>
+        <v>0.8490586643661898</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3394845138433463</v>
+        <v>0.3364029715170149</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8499610721832944</v>
+        <v>0.8502947391836281</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8500480337349755</v>
+        <v>0.8503046023923637</v>
       </c>
       <c r="O2" t="n">
-        <v>0.849961948626192</v>
+        <v>0.8502950342214957</v>
       </c>
       <c r="P2" t="n">
-        <v>0.8500049890009947</v>
+        <v>0.8502998182800128</v>
       </c>
     </row>
     <row r="3">
@@ -583,37 +583,37 @@
         <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3181139860465447</v>
+        <v>0.3189932022767302</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8559645610913406</v>
+        <v>0.8555753262158957</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8556319718881987</v>
+        <v>0.8551778477546949</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8561335245688194</v>
+        <v>0.8556634139793836</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8558002786095092</v>
+        <v>0.8553395115834059</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3201224312687553</v>
+        <v>0.3232499889112916</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8548548548548549</v>
+        <v>0.8506284061839617</v>
       </c>
       <c r="N3" t="n">
-        <v>0.8550335356163692</v>
+        <v>0.8507593392310222</v>
       </c>
       <c r="O3" t="n">
-        <v>0.8548561024705188</v>
+        <v>0.8506294805616363</v>
       </c>
       <c r="P3" t="n">
-        <v>0.8549448098374343</v>
+        <v>0.8506944049405915</v>
       </c>
     </row>
     <row r="4">
@@ -633,37 +633,37 @@
         <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3169250466192468</v>
+        <v>0.3140851213306016</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8562199321207328</v>
+        <v>0.857610056675893</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8558298050588314</v>
+        <v>0.8572683601264517</v>
       </c>
       <c r="J4" t="n">
-        <v>0.856249984659181</v>
+        <v>0.8575504356241741</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8559627929396519</v>
+        <v>0.8573250238536346</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3204532971964326</v>
+        <v>0.3177559092568982</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8527416305194083</v>
+        <v>0.8545211878545211</v>
       </c>
       <c r="N4" t="n">
-        <v>0.852870329533254</v>
+        <v>0.8547992524427088</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8527426925528168</v>
+        <v>0.8545227447262478</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8528065062672748</v>
+        <v>0.8546609762199042</v>
       </c>
     </row>
     <row r="5">
@@ -683,37 +683,37 @@
         <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3120146045247023</v>
+        <v>0.3147890735762393</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8585604899828655</v>
+        <v>0.8581609578884936</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8583137030723754</v>
+        <v>0.8577497210816164</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8588359340477654</v>
+        <v>0.8581677589545555</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8584938306705879</v>
+        <v>0.8578753371086141</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3144930130058981</v>
+        <v>0.3166514178148465</v>
       </c>
       <c r="M5" t="n">
         <v>0.8550772995217439</v>
       </c>
       <c r="N5" t="n">
-        <v>0.855216059172877</v>
+        <v>0.8553602448072694</v>
       </c>
       <c r="O5" t="n">
-        <v>0.8550783986952684</v>
+        <v>0.8550788687707576</v>
       </c>
       <c r="P5" t="n">
-        <v>0.855147223393972</v>
+        <v>0.8552195336451104</v>
       </c>
     </row>
     <row r="6">
@@ -733,37 +733,37 @@
         <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>0.329496037607915</v>
+        <v>0.3296723748913079</v>
       </c>
       <c r="H6" t="n">
-        <v>0.850543075326216</v>
+        <v>0.85109912514828</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8503908357648842</v>
+        <v>0.8508110174423493</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8506238637019027</v>
+        <v>0.8510231676120946</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8504221901515276</v>
+        <v>0.8508322728455019</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3346029867588532</v>
+        <v>0.3348015829092877</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8515181848515182</v>
+        <v>0.8508508508508509</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8515289288096544</v>
+        <v>0.850874432680456</v>
       </c>
       <c r="O6" t="n">
-        <v>0.8515184922749279</v>
+        <v>0.8508513067108967</v>
       </c>
       <c r="P6" t="n">
-        <v>0.8515237105103128</v>
+        <v>0.8508628695385387</v>
       </c>
     </row>
     <row r="7">
@@ -786,34 +786,34 @@
         <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3162134482425001</v>
+        <v>0.31684071467879</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8563537959667854</v>
+        <v>0.8566822772505601</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8560682847447464</v>
+        <v>0.8562200762221089</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8562996138430253</v>
+        <v>0.8566619552676594</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8561040639130008</v>
+        <v>0.8563640090279068</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3207164410056326</v>
+        <v>0.3200815261661168</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8525191858525192</v>
+        <v>0.854076298520743</v>
       </c>
       <c r="N7" t="n">
-        <v>0.8526600734301545</v>
+        <v>0.8542581450430408</v>
       </c>
       <c r="O7" t="n">
-        <v>0.8525202973648063</v>
+        <v>0.8540775584971835</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8525901796686587</v>
+        <v>0.854167842225296</v>
       </c>
     </row>
     <row r="8">
@@ -833,37 +833,37 @@
         <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3136899351427446</v>
+        <v>0.3123690830116251</v>
       </c>
       <c r="H8" t="n">
-        <v>0.858077550415184</v>
+        <v>0.8589445762488467</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8579331692447818</v>
+        <v>0.8585827922162932</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8580533424932385</v>
+        <v>0.8588338024914484</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8579081425177856</v>
+        <v>0.8586273955096544</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3172799447655308</v>
+        <v>0.3153331966882878</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8539650761872984</v>
+        <v>0.853075297519742</v>
       </c>
       <c r="N8" t="n">
-        <v>0.8543030829894973</v>
+        <v>0.8533656055601029</v>
       </c>
       <c r="O8" t="n">
-        <v>0.8539667938674447</v>
+        <v>0.8530768914848053</v>
       </c>
       <c r="P8" t="n">
-        <v>0.8541349053276199</v>
+        <v>0.8532212240985965</v>
       </c>
     </row>
     <row r="9">
@@ -883,37 +883,37 @@
         <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G9" t="n">
-        <v>0.311345879120532</v>
+        <v>0.3114270026905757</v>
       </c>
       <c r="H9" t="n">
-        <v>0.860273947212337</v>
+        <v>0.8601349347568209</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8601095455889365</v>
+        <v>0.8597462358223633</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8604309732660443</v>
+        <v>0.8599768594414836</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8601897191239426</v>
+        <v>0.8597843322805211</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3127721932705662</v>
+        <v>0.3146744194165917</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8560783005227449</v>
+        <v>0.8567456345234123</v>
       </c>
       <c r="N9" t="n">
-        <v>0.8562611681303702</v>
+        <v>0.8570912122103649</v>
       </c>
       <c r="O9" t="n">
-        <v>0.8560795605239511</v>
+        <v>0.8567473646083628</v>
       </c>
       <c r="P9" t="n">
-        <v>0.8561703546966817</v>
+        <v>0.8569192539162747</v>
       </c>
     </row>
     <row r="10">
@@ -933,37 +933,37 @@
         <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3279256182815894</v>
+        <v>0.3280493557885638</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8518775948991697</v>
+        <v>0.8509045077105576</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8516058963032624</v>
+        <v>0.8508935435328542</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8517570408179556</v>
+        <v>0.8508284828306735</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8515995113219703</v>
+        <v>0.8507797152005836</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3322358146812676</v>
+        <v>0.3327822656971847</v>
       </c>
       <c r="M10" t="n">
-        <v>0.8512957401846291</v>
+        <v>0.8502947391836281</v>
       </c>
       <c r="N10" t="n">
-        <v>0.851321983856127</v>
+        <v>0.8503527677178911</v>
       </c>
       <c r="O10" t="n">
-        <v>0.8512962207909935</v>
+        <v>0.8502954548153543</v>
       </c>
       <c r="P10" t="n">
-        <v>0.8513091021286441</v>
+        <v>0.8503241103008826</v>
       </c>
     </row>
     <row r="11">
@@ -983,37 +983,37 @@
         <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3148855653012576</v>
+        <v>0.3147136459441991</v>
       </c>
       <c r="H11" t="n">
-        <v>0.857071512126005</v>
+        <v>0.8574102906287071</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8569303207787929</v>
+        <v>0.8571016851063121</v>
       </c>
       <c r="J11" t="n">
-        <v>0.8571727838617001</v>
+        <v>0.8576129537254547</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8569705421565779</v>
+        <v>0.8572769023275251</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3185735193976722</v>
+        <v>0.316991191251919</v>
       </c>
       <c r="M11" t="n">
-        <v>0.853075297519742</v>
+        <v>0.8537426315204093</v>
       </c>
       <c r="N11" t="n">
-        <v>0.8532602135926041</v>
+        <v>0.8539736765098351</v>
       </c>
       <c r="O11" t="n">
-        <v>0.8530765698542073</v>
+        <v>0.8537440523080212</v>
       </c>
       <c r="P11" t="n">
-        <v>0.8531683818411178</v>
+        <v>0.8538588489709922</v>
       </c>
     </row>
     <row r="12">
@@ -1033,37 +1033,37 @@
         <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3122522138391328</v>
+        <v>0.3125294026948033</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8587499588111243</v>
+        <v>0.8586892052194544</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8583871475514079</v>
+        <v>0.8582906377923009</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8588782624498427</v>
+        <v>0.8585276878312914</v>
       </c>
       <c r="K12" t="n">
-        <v>0.8585550185226292</v>
+        <v>0.8583289874123083</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3155217951275019</v>
+        <v>0.316276199360303</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8545211878545211</v>
+        <v>0.8542987431876321</v>
       </c>
       <c r="N12" t="n">
-        <v>0.8548357597265965</v>
+        <v>0.854567865495298</v>
       </c>
       <c r="O12" t="n">
-        <v>0.8545228436895087</v>
+        <v>0.8543002753157918</v>
       </c>
       <c r="P12" t="n">
-        <v>0.8546792730667698</v>
+        <v>0.8544340494546878</v>
       </c>
     </row>
     <row r="13">
@@ -1083,37 +1083,37 @@
         <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G13" t="n">
-        <v>0.308823110529594</v>
+        <v>0.3086742401510632</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8609463556082773</v>
+        <v>0.8611409730459997</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8608943710626435</v>
+        <v>0.8609189745321093</v>
       </c>
       <c r="J13" t="n">
-        <v>0.8609580253019058</v>
+        <v>0.8611290060917683</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8608450551011833</v>
+        <v>0.8609428088418667</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3122983733967744</v>
+        <v>0.3114380507755283</v>
       </c>
       <c r="M13" t="n">
-        <v>0.8558558558558559</v>
+        <v>0.8563007451896341</v>
       </c>
       <c r="N13" t="n">
-        <v>0.8561174885086515</v>
+        <v>0.8565375234326491</v>
       </c>
       <c r="O13" t="n">
-        <v>0.8558573632624624</v>
+        <v>0.8563021783792985</v>
       </c>
       <c r="P13" t="n">
-        <v>0.8559874061232504</v>
+        <v>0.8564198347377083</v>
       </c>
     </row>
     <row r="14">
@@ -1133,37 +1133,37 @@
         <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3262101525155858</v>
+        <v>0.3262044594564277</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8526838671411626</v>
+        <v>0.8530957558982469</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8525307335362984</v>
+        <v>0.8527481975625895</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8525827341727598</v>
+        <v>0.8530433755174409</v>
       </c>
       <c r="K14" t="n">
-        <v>0.8524709084858515</v>
+        <v>0.852816184117886</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3305736424304452</v>
+        <v>0.3316597838527309</v>
       </c>
       <c r="M14" t="n">
-        <v>0.85229674118563</v>
+        <v>0.8529640751862974</v>
       </c>
       <c r="N14" t="n">
-        <v>0.8523122771684403</v>
+        <v>0.8529865263016212</v>
       </c>
       <c r="O14" t="n">
-        <v>0.8522971104707089</v>
+        <v>0.8529645187020771</v>
       </c>
       <c r="P14" t="n">
-        <v>0.8523046937521019</v>
+        <v>0.8529755223598948</v>
       </c>
     </row>
     <row r="15">
@@ -1183,37 +1183,37 @@
         <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3139200919763696</v>
+        <v>0.3137574639867994</v>
       </c>
       <c r="H15" t="n">
-        <v>0.857488549492553</v>
+        <v>0.8585501927639384</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8571185537984334</v>
+        <v>0.8583301316677785</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8574883565375025</v>
+        <v>0.8585732967599595</v>
       </c>
       <c r="K15" t="n">
-        <v>0.8572245214875767</v>
+        <v>0.8583706142468579</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3175918372098212</v>
+        <v>0.3170151274661274</v>
       </c>
       <c r="M15" t="n">
-        <v>0.854076298520743</v>
+        <v>0.8554109665220776</v>
       </c>
       <c r="N15" t="n">
-        <v>0.8543452528212461</v>
+        <v>0.8556553880689735</v>
       </c>
       <c r="O15" t="n">
-        <v>0.8540778306461509</v>
+        <v>0.8554124244415503</v>
       </c>
       <c r="P15" t="n">
-        <v>0.8542115208036899</v>
+        <v>0.8555338890054125</v>
       </c>
     </row>
     <row r="16">
@@ -1233,37 +1233,37 @@
         <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3106295862703578</v>
+        <v>0.3106437462461135</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8598898609463556</v>
+        <v>0.8605015157506261</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8596141385406048</v>
+        <v>0.8600272361537981</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8597568568055663</v>
+        <v>0.8604944348826614</v>
       </c>
       <c r="K16" t="n">
-        <v>0.8596058889545175</v>
+        <v>0.8601813560380239</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3146674630309396</v>
+        <v>0.3149143399243623</v>
       </c>
       <c r="M16" t="n">
-        <v>0.8546324101879658</v>
+        <v>0.8558558558558559</v>
       </c>
       <c r="N16" t="n">
-        <v>0.8550428647916226</v>
+        <v>0.856200575926966</v>
       </c>
       <c r="O16" t="n">
-        <v>0.8546343010620737</v>
+        <v>0.8558575859297994</v>
       </c>
       <c r="P16" t="n">
-        <v>0.8548385341093508</v>
+        <v>0.8560290465714488</v>
       </c>
     </row>
     <row r="17">
@@ -1283,37 +1283,37 @@
         <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3067283780350706</v>
+        <v>0.3080889098897088</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8618916403057862</v>
+        <v>0.8610802194543299</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8617362945959365</v>
+        <v>0.8608871435234613</v>
       </c>
       <c r="J17" t="n">
-        <v>0.8617495213910589</v>
+        <v>0.8611100822165099</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8616625500539626</v>
+        <v>0.860915849881373</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3107250629036569</v>
+        <v>0.3117308078294981</v>
       </c>
       <c r="M17" t="n">
         <v>0.8587476365254143</v>
       </c>
       <c r="N17" t="n">
-        <v>0.8591574110071608</v>
+        <v>0.8590113830529684</v>
       </c>
       <c r="O17" t="n">
-        <v>0.8587495150800217</v>
+        <v>0.8587491439677934</v>
       </c>
       <c r="P17" t="n">
-        <v>0.8589534146186489</v>
+        <v>0.8588802434932317</v>
       </c>
     </row>
     <row r="18">
@@ -1333,37 +1333,37 @@
         <v>2</v>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3322609091571101</v>
+        <v>0.3295054405019275</v>
       </c>
       <c r="H18" t="n">
-        <v>0.8507932977461448</v>
+        <v>0.8510713226571768</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8506445294050684</v>
+        <v>0.8507731904299549</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8507754220719249</v>
+        <v>0.8510184510296701</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8506250310187909</v>
+        <v>0.8508154257741199</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3367414630487008</v>
+        <v>0.3341894660005795</v>
       </c>
       <c r="M18" t="n">
-        <v>0.8509620731842954</v>
+        <v>0.8499610721832944</v>
       </c>
       <c r="N18" t="n">
-        <v>0.8510673687755506</v>
+        <v>0.8499631112437227</v>
       </c>
       <c r="O18" t="n">
-        <v>0.8509630362324291</v>
+        <v>0.8499612064017354</v>
       </c>
       <c r="P18" t="n">
-        <v>0.8510151993062561</v>
+        <v>0.8499621588216618</v>
       </c>
     </row>
     <row r="19">
@@ -1383,37 +1383,37 @@
         <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3177735517347559</v>
+        <v>0.3167073455827162</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8565206109134046</v>
+        <v>0.8567481794516937</v>
       </c>
       <c r="I19" t="n">
-        <v>0.8563889167058774</v>
+        <v>0.856418166895572</v>
       </c>
       <c r="J19" t="n">
-        <v>0.8567237462155907</v>
+        <v>0.8567238406088165</v>
       </c>
       <c r="K19" t="n">
-        <v>0.8564711322803253</v>
+        <v>0.8564898725104111</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3216463260944175</v>
+        <v>0.3202368837537072</v>
       </c>
       <c r="M19" t="n">
-        <v>0.8535201868535202</v>
+        <v>0.853075297519742</v>
       </c>
       <c r="N19" t="n">
-        <v>0.8537843990699652</v>
+        <v>0.8532901163570792</v>
       </c>
       <c r="O19" t="n">
-        <v>0.8535217066016412</v>
+        <v>0.8530766688174682</v>
       </c>
       <c r="P19" t="n">
-        <v>0.853653032626383</v>
+        <v>0.853183379237315</v>
       </c>
     </row>
     <row r="20">
@@ -1433,37 +1433,37 @@
         <v>2</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3139376928766926</v>
+        <v>0.3135997834047043</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8583051189534731</v>
+        <v>0.8582999703440095</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8579735704947915</v>
+        <v>0.857836448329703</v>
       </c>
       <c r="J20" t="n">
-        <v>0.8583187866890222</v>
+        <v>0.8582057580931246</v>
       </c>
       <c r="K20" t="n">
-        <v>0.8580624514604713</v>
+        <v>0.8579425077712942</v>
       </c>
       <c r="L20" t="n">
-        <v>0.3156283069692455</v>
+        <v>0.3162464826858837</v>
       </c>
       <c r="M20" t="n">
-        <v>0.8557446335224113</v>
+        <v>0.8546324101879658</v>
       </c>
       <c r="N20" t="n">
-        <v>0.8559851461293126</v>
+        <v>0.8547970892180912</v>
       </c>
       <c r="O20" t="n">
-        <v>0.855746079075604</v>
+        <v>0.8546336083192476</v>
       </c>
       <c r="P20" t="n">
-        <v>0.8558655959079401</v>
+        <v>0.8547153409514456</v>
       </c>
     </row>
     <row r="21">
@@ -1483,37 +1483,37 @@
         <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3152077703097833</v>
+        <v>0.3152759522668251</v>
       </c>
       <c r="H21" t="n">
-        <v>0.8574936981020167</v>
+        <v>0.8585728466455779</v>
       </c>
       <c r="I21" t="n">
-        <v>0.857314195991547</v>
+        <v>0.8584638474052454</v>
       </c>
       <c r="J21" t="n">
-        <v>0.8575577273172228</v>
+        <v>0.8586153628669387</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8573540000185148</v>
+        <v>0.8584557060487574</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3153427936508502</v>
+        <v>0.3162181876013893</v>
       </c>
       <c r="M21" t="n">
-        <v>0.8551885218551886</v>
+        <v>0.8546324101879658</v>
       </c>
       <c r="N21" t="n">
-        <v>0.8554007346442857</v>
+        <v>0.8546328211979515</v>
       </c>
       <c r="O21" t="n">
-        <v>0.8551898808086487</v>
+        <v>0.8546324702417475</v>
       </c>
       <c r="P21" t="n">
-        <v>0.8552952947311486</v>
+        <v>0.8546326457198135</v>
       </c>
     </row>
     <row r="22">
@@ -1533,37 +1533,37 @@
         <v>2</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3264242342102718</v>
+        <v>0.3263765863755871</v>
       </c>
       <c r="H22" t="n">
-        <v>0.8512937425860024</v>
+        <v>0.8514605575326216</v>
       </c>
       <c r="I22" t="n">
-        <v>0.8512022977409441</v>
+        <v>0.8513410704684343</v>
       </c>
       <c r="J22" t="n">
-        <v>0.8512546112816168</v>
+        <v>0.8515639601707731</v>
       </c>
       <c r="K22" t="n">
-        <v>0.8511417149020971</v>
+        <v>0.8513646719771746</v>
       </c>
       <c r="L22" t="n">
-        <v>0.3317859657409669</v>
+        <v>0.3301552345311975</v>
       </c>
       <c r="M22" t="n">
-        <v>0.8502947391836281</v>
+        <v>0.8529640751862974</v>
       </c>
       <c r="N22" t="n">
-        <v>0.8503610707017977</v>
+        <v>0.8530007992101922</v>
       </c>
       <c r="O22" t="n">
-        <v>0.8502955042969847</v>
+        <v>0.8529646424061531</v>
       </c>
       <c r="P22" t="n">
-        <v>0.8503282862354814</v>
+        <v>0.852982720425013</v>
       </c>
     </row>
     <row r="23">
@@ -1583,37 +1583,37 @@
         <v>2</v>
       </c>
       <c r="F23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0.314573461244353</v>
+        <v>0.3119506759973051</v>
       </c>
       <c r="H23" t="n">
-        <v>0.8589950326215896</v>
+        <v>0.8592174525504153</v>
       </c>
       <c r="I23" t="n">
-        <v>0.8586594388293796</v>
+        <v>0.8589849207974368</v>
       </c>
       <c r="J23" t="n">
-        <v>0.8589377529444124</v>
+        <v>0.8593191865081652</v>
       </c>
       <c r="K23" t="n">
-        <v>0.8587153485305777</v>
+        <v>0.8590709207778658</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3189225723506903</v>
+        <v>0.3144710117044214</v>
       </c>
       <c r="M23" t="n">
-        <v>0.8536314091869648</v>
+        <v>0.8556334111889667</v>
       </c>
       <c r="N23" t="n">
-        <v>0.8540247840583896</v>
+        <v>0.8558779848041025</v>
       </c>
       <c r="O23" t="n">
-        <v>0.853633262937467</v>
+        <v>0.8556348691111912</v>
       </c>
       <c r="P23" t="n">
-        <v>0.8538289786151755</v>
+        <v>0.8557564096906891</v>
       </c>
     </row>
     <row r="24">
@@ -1633,37 +1633,37 @@
         <v>2</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3120891423777127</v>
+        <v>0.3094559476474034</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8591340450771057</v>
+        <v>0.8604459107684197</v>
       </c>
       <c r="I24" t="n">
-        <v>0.8588887643326725</v>
+        <v>0.8603420525225902</v>
       </c>
       <c r="J24" t="n">
-        <v>0.8590784776711605</v>
+        <v>0.860549857245956</v>
       </c>
       <c r="K24" t="n">
-        <v>0.8588989066801116</v>
+        <v>0.8603647301910482</v>
       </c>
       <c r="L24" t="n">
-        <v>0.3133057970806019</v>
+        <v>0.3130709985406132</v>
       </c>
       <c r="M24" t="n">
-        <v>0.8566344121899677</v>
+        <v>0.8547436325214103</v>
       </c>
       <c r="N24" t="n">
-        <v>0.8568673343430837</v>
+        <v>0.8549404185185057</v>
       </c>
       <c r="O24" t="n">
-        <v>0.8566358330133521</v>
+        <v>0.8547449419877364</v>
       </c>
       <c r="P24" t="n">
-        <v>0.8567515680398267</v>
+        <v>0.8548426690782361</v>
       </c>
     </row>
     <row r="25">
@@ -1686,34 +1686,34 @@
         <v>3</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3060703271479014</v>
+        <v>0.3055083690106971</v>
       </c>
       <c r="H25" t="n">
-        <v>0.8625589000922631</v>
+        <v>0.8622252701990246</v>
       </c>
       <c r="I25" t="n">
-        <v>0.8627024285706333</v>
+        <v>0.8626449863791998</v>
       </c>
       <c r="J25" t="n">
-        <v>0.8626044936398782</v>
+        <v>0.8622141770766271</v>
       </c>
       <c r="K25" t="n">
-        <v>0.8625689866520878</v>
+        <v>0.8623415470276763</v>
       </c>
       <c r="L25" t="n">
-        <v>0.3076392124150923</v>
+        <v>0.3069961371045969</v>
       </c>
       <c r="M25" t="n">
-        <v>0.8597486375264153</v>
+        <v>0.8584139695250806</v>
       </c>
       <c r="N25" t="n">
-        <v>0.8599226488080238</v>
+        <v>0.8584496430540283</v>
       </c>
       <c r="O25" t="n">
-        <v>0.8597498604618021</v>
+        <v>0.8584145244419462</v>
       </c>
       <c r="P25" t="n">
-        <v>0.8598362459542449</v>
+        <v>0.8584320833888101</v>
       </c>
     </row>
     <row r="26">
@@ -1733,37 +1733,37 @@
         <v>2</v>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3223500451217335</v>
+        <v>0.3232001076111685</v>
       </c>
       <c r="H26" t="n">
-        <v>0.854935868920522</v>
+        <v>0.8537403618030843</v>
       </c>
       <c r="I26" t="n">
-        <v>0.8546083588469194</v>
+        <v>0.8536124424488242</v>
       </c>
       <c r="J26" t="n">
-        <v>0.8551634380674141</v>
+        <v>0.853745935999045</v>
       </c>
       <c r="K26" t="n">
-        <v>0.8548036364590139</v>
+        <v>0.8535929861066406</v>
       </c>
       <c r="L26" t="n">
-        <v>0.3270175689557827</v>
+        <v>0.3272240213819724</v>
       </c>
       <c r="M26" t="n">
-        <v>0.8534089645200756</v>
+        <v>0.8517406295184073</v>
       </c>
       <c r="N26" t="n">
-        <v>0.8534716207776114</v>
+        <v>0.8518009266311586</v>
       </c>
       <c r="O26" t="n">
-        <v>0.8534097049311413</v>
+        <v>0.8517413575384274</v>
       </c>
       <c r="P26" t="n">
-        <v>0.8534406617314009</v>
+        <v>0.8517711410432934</v>
       </c>
     </row>
     <row r="27">
@@ -1783,37 +1783,37 @@
         <v>2</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3125997844137492</v>
+        <v>0.3114699321168485</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8593564650059312</v>
+        <v>0.8596066874258601</v>
       </c>
       <c r="I27" t="n">
-        <v>0.8589209244037279</v>
+        <v>0.8592854941506758</v>
       </c>
       <c r="J27" t="n">
-        <v>0.8593823654885107</v>
+        <v>0.8597275777292359</v>
       </c>
       <c r="K27" t="n">
-        <v>0.859072580519797</v>
+        <v>0.8594255049239071</v>
       </c>
       <c r="L27" t="n">
-        <v>0.3156936566739375</v>
+        <v>0.3139963435682201</v>
       </c>
       <c r="M27" t="n">
-        <v>0.8538538538538538</v>
+        <v>0.8546324101879658</v>
       </c>
       <c r="N27" t="n">
-        <v>0.8541772983820642</v>
+        <v>0.8549613568259108</v>
       </c>
       <c r="O27" t="n">
-        <v>0.8538555344214014</v>
+        <v>0.854634103135552</v>
       </c>
       <c r="P27" t="n">
-        <v>0.8540163860943393</v>
+        <v>0.8547976986590003</v>
       </c>
     </row>
     <row r="28">
@@ -1836,34 +1836,34 @@
         <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>0.3078788148138936</v>
+        <v>0.3080111736610945</v>
       </c>
       <c r="H28" t="n">
-        <v>0.8618308867141163</v>
+        <v>0.8607517381705548</v>
       </c>
       <c r="I28" t="n">
-        <v>0.8616428157802448</v>
+        <v>0.8606998318788273</v>
       </c>
       <c r="J28" t="n">
-        <v>0.861830131531072</v>
+        <v>0.8606851862393137</v>
       </c>
       <c r="K28" t="n">
-        <v>0.8616568705214475</v>
+        <v>0.8606083818289664</v>
       </c>
       <c r="L28" t="n">
-        <v>0.3109935440974981</v>
+        <v>0.3113702904317012</v>
       </c>
       <c r="M28" t="n">
-        <v>0.8577466355244133</v>
+        <v>0.857301746190635</v>
       </c>
       <c r="N28" t="n">
-        <v>0.8580139883534706</v>
+        <v>0.857467655778594</v>
       </c>
       <c r="O28" t="n">
-        <v>0.8577481553248172</v>
+        <v>0.8573029443549376</v>
       </c>
       <c r="P28" t="n">
-        <v>0.8578810512456138</v>
+        <v>0.8573852921561296</v>
       </c>
     </row>
     <row r="29">
@@ -1883,37 +1883,37 @@
         <v>2</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
-        <v>0.3053844228006216</v>
+        <v>0.3035730425427234</v>
       </c>
       <c r="H29" t="n">
-        <v>0.8622757265717675</v>
+        <v>0.862748368920522</v>
       </c>
       <c r="I29" t="n">
-        <v>0.8624822520650662</v>
+        <v>0.8630490068370051</v>
       </c>
       <c r="J29" t="n">
-        <v>0.862180801283907</v>
+        <v>0.8628195398089683</v>
       </c>
       <c r="K29" t="n">
-        <v>0.8622475672787736</v>
+        <v>0.8628520124003258</v>
       </c>
       <c r="L29" t="n">
-        <v>0.3087654005687651</v>
+        <v>0.3067591383082109</v>
       </c>
       <c r="M29" t="n">
-        <v>0.8603047491936381</v>
+        <v>0.858080302524747</v>
       </c>
       <c r="N29" t="n">
-        <v>0.8605122278661355</v>
+        <v>0.858193306010929</v>
       </c>
       <c r="O29" t="n">
-        <v>0.8603060834695728</v>
+        <v>0.8580812904017513</v>
       </c>
       <c r="P29" t="n">
-        <v>0.860409143320382</v>
+        <v>0.8581372945508945</v>
       </c>
     </row>
     <row r="30">
@@ -1936,34 +1936,34 @@
         <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3194685245681825</v>
+        <v>0.3193118858009129</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8556257825886384</v>
+        <v>0.8554363137603797</v>
       </c>
       <c r="I30" t="n">
-        <v>0.8554907492326558</v>
+        <v>0.8551963441841924</v>
       </c>
       <c r="J30" t="n">
-        <v>0.8557668382402978</v>
+        <v>0.8554681814568603</v>
       </c>
       <c r="K30" t="n">
-        <v>0.8555492086598642</v>
+        <v>0.855251782659751</v>
       </c>
       <c r="L30" t="n">
-        <v>0.3242280112896206</v>
+        <v>0.3236597372232002</v>
       </c>
       <c r="M30" t="n">
-        <v>0.8546324101879658</v>
+        <v>0.8534089645200756</v>
       </c>
       <c r="N30" t="n">
-        <v>0.8547062264666405</v>
+        <v>0.853489493967918</v>
       </c>
       <c r="O30" t="n">
-        <v>0.8546332124662041</v>
+        <v>0.8534098038944022</v>
       </c>
       <c r="P30" t="n">
-        <v>0.8546697179070349</v>
+        <v>0.8534496470709133</v>
       </c>
     </row>
     <row r="31">
@@ -1986,34 +1986,34 @@
         <v>3</v>
       </c>
       <c r="G31" t="n">
-        <v>0.3102683962572919</v>
+        <v>0.3093434802707696</v>
       </c>
       <c r="H31" t="n">
-        <v>0.861029763081587</v>
+        <v>0.8599403173190985</v>
       </c>
       <c r="I31" t="n">
-        <v>0.8607021167717841</v>
+        <v>0.8595896994717378</v>
       </c>
       <c r="J31" t="n">
-        <v>0.8609063341966942</v>
+        <v>0.8598475342028213</v>
       </c>
       <c r="K31" t="n">
-        <v>0.8607251049968402</v>
+        <v>0.8596375853707777</v>
       </c>
       <c r="L31" t="n">
-        <v>0.314055022881025</v>
+        <v>0.3147308752880428</v>
       </c>
       <c r="M31" t="n">
-        <v>0.8560783005227449</v>
+        <v>0.8563007451896341</v>
       </c>
       <c r="N31" t="n">
-        <v>0.856394246784</v>
+        <v>0.8566458940686654</v>
       </c>
       <c r="O31" t="n">
-        <v>0.8560799563769946</v>
+        <v>0.8563024752690811</v>
       </c>
       <c r="P31" t="n">
-        <v>0.8562370727396367</v>
+        <v>0.85647415024388</v>
       </c>
     </row>
     <row r="32">
@@ -2036,34 +2036,34 @@
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>0.3063768332226002</v>
+        <v>0.3043574686066345</v>
       </c>
       <c r="H32" t="n">
-        <v>0.8612521830104125</v>
+        <v>0.8625032951100566</v>
       </c>
       <c r="I32" t="n">
-        <v>0.8613270962450221</v>
+        <v>0.8625871646238039</v>
       </c>
       <c r="J32" t="n">
-        <v>0.861165716045539</v>
+        <v>0.862317260142608</v>
       </c>
       <c r="K32" t="n">
-        <v>0.8611631451004713</v>
+        <v>0.8623675519574406</v>
       </c>
       <c r="L32" t="n">
-        <v>0.3112875664193483</v>
+        <v>0.3096763940466573</v>
       </c>
       <c r="M32" t="n">
-        <v>0.8585251918585252</v>
+        <v>0.8569680791903014</v>
       </c>
       <c r="N32" t="n">
-        <v>0.8588338542928498</v>
+        <v>0.8573651482600086</v>
       </c>
       <c r="O32" t="n">
-        <v>0.8585268230022287</v>
+        <v>0.8569699329820797</v>
       </c>
       <c r="P32" t="n">
-        <v>0.8586803112018737</v>
+        <v>0.8571674950654473</v>
       </c>
     </row>
     <row r="33">
@@ -2083,37 +2083,37 @@
         <v>2</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G33" t="n">
-        <v>0.300125414103921</v>
+        <v>0.3006715422485061</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8646945432977462</v>
+        <v>0.864260000659022</v>
       </c>
       <c r="I33" t="n">
-        <v>0.8649356065360443</v>
+        <v>0.8643504450573145</v>
       </c>
       <c r="J33" t="n">
-        <v>0.864553568645309</v>
+        <v>0.8641761816721868</v>
       </c>
       <c r="K33" t="n">
-        <v>0.8646568981545747</v>
+        <v>0.8641813823160507</v>
       </c>
       <c r="L33" t="n">
-        <v>0.3056888000457416</v>
+        <v>0.3069521353170654</v>
       </c>
       <c r="M33" t="n">
-        <v>0.8605271938605272</v>
+        <v>0.8596374151929708</v>
       </c>
       <c r="N33" t="n">
-        <v>0.8607504953189291</v>
+        <v>0.8598009692877369</v>
       </c>
       <c r="O33" t="n">
-        <v>0.860528577620844</v>
+        <v>0.8596386010157588</v>
       </c>
       <c r="P33" t="n">
-        <v>0.8606395221644014</v>
+        <v>0.8597197774854547</v>
       </c>
     </row>
     <row r="34">
@@ -2136,34 +2136,34 @@
         <v>3</v>
       </c>
       <c r="G34" t="n">
-        <v>0.3293490296897034</v>
+        <v>0.3363715695619224</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8494865806642943</v>
+        <v>0.849797556675893</v>
       </c>
       <c r="I34" t="n">
-        <v>0.8492258053293357</v>
+        <v>0.8495057615614052</v>
       </c>
       <c r="J34" t="n">
-        <v>0.8496131630308188</v>
+        <v>0.8496803978144715</v>
       </c>
       <c r="K34" t="n">
-        <v>0.8493354330604023</v>
+        <v>0.8495103594637989</v>
       </c>
       <c r="L34" t="n">
-        <v>0.3337070726284291</v>
+        <v>0.3402942538737224</v>
       </c>
       <c r="M34" t="n">
-        <v>0.8509620731842954</v>
+        <v>0.8510732955177399</v>
       </c>
       <c r="N34" t="n">
-        <v>0.8510162601626017</v>
+        <v>0.8513801827301197</v>
       </c>
       <c r="O34" t="n">
-        <v>0.8509627640834616</v>
+        <v>0.851074938939668</v>
       </c>
       <c r="P34" t="n">
-        <v>0.8509895112822955</v>
+        <v>0.8512275334703631</v>
       </c>
     </row>
     <row r="35">
@@ -2186,34 +2186,34 @@
         <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>0.318010159790512</v>
+        <v>0.3168644390421497</v>
       </c>
       <c r="H35" t="n">
-        <v>0.8556082773164624</v>
+        <v>0.8574710442203769</v>
       </c>
       <c r="I35" t="n">
-        <v>0.855342302799965</v>
+        <v>0.856920094650971</v>
       </c>
       <c r="J35" t="n">
-        <v>0.855485264417021</v>
+        <v>0.8574152566668259</v>
       </c>
       <c r="K35" t="n">
-        <v>0.8553315856562971</v>
+        <v>0.8570894254925482</v>
       </c>
       <c r="L35" t="n">
-        <v>0.3222093207841845</v>
+        <v>0.3204721998157927</v>
       </c>
       <c r="M35" t="n">
-        <v>0.8505171838505172</v>
+        <v>0.8546324101879658</v>
       </c>
       <c r="N35" t="n">
-        <v>0.8508567582265729</v>
+        <v>0.8548721753492334</v>
       </c>
       <c r="O35" t="n">
-        <v>0.8505189138584193</v>
+        <v>0.8546338557273998</v>
       </c>
       <c r="P35" t="n">
-        <v>0.8506878024993995</v>
+        <v>0.8547529989264296</v>
       </c>
     </row>
     <row r="36">
@@ -2233,37 +2233,37 @@
         <v>2</v>
       </c>
       <c r="F36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3149295505334415</v>
+        <v>0.310892376151309</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8588107124027943</v>
+        <v>0.8600618245024384</v>
       </c>
       <c r="I36" t="n">
-        <v>0.8587539602801334</v>
+        <v>0.8603907830525842</v>
       </c>
       <c r="J36" t="n">
-        <v>0.8589024945738636</v>
+        <v>0.8600823668829444</v>
       </c>
       <c r="K36" t="n">
-        <v>0.8587429682213017</v>
+        <v>0.8601534523052049</v>
       </c>
       <c r="L36" t="n">
-        <v>0.316409047929526</v>
+        <v>0.3128342270555514</v>
       </c>
       <c r="M36" t="n">
-        <v>0.8558558558558559</v>
+        <v>0.8574129685240797</v>
       </c>
       <c r="N36" t="n">
-        <v>0.8559980664811691</v>
+        <v>0.857435697086241</v>
       </c>
       <c r="O36" t="n">
-        <v>0.855856967409419</v>
+        <v>0.857413412094894</v>
       </c>
       <c r="P36" t="n">
-        <v>0.8559275111302724</v>
+        <v>0.8574245544457674</v>
       </c>
     </row>
     <row r="37">
@@ -2283,37 +2283,37 @@
         <v>2</v>
       </c>
       <c r="F37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3133006891778872</v>
+        <v>0.311989502733442</v>
       </c>
       <c r="H37" t="n">
-        <v>0.8591391936865691</v>
+        <v>0.8590784400948992</v>
       </c>
       <c r="I37" t="n">
-        <v>0.8595201265972474</v>
+        <v>0.8596129203846885</v>
       </c>
       <c r="J37" t="n">
-        <v>0.8592528546819754</v>
+        <v>0.8593361306231246</v>
       </c>
       <c r="K37" t="n">
-        <v>0.8592912846436577</v>
+        <v>0.8593827835317517</v>
       </c>
       <c r="L37" t="n">
-        <v>0.3149849378990418</v>
+        <v>0.314411503498205</v>
       </c>
       <c r="M37" t="n">
-        <v>0.8560783005227449</v>
+        <v>0.8565231898565232</v>
       </c>
       <c r="N37" t="n">
-        <v>0.8561963795455281</v>
+        <v>0.8567780391185937</v>
       </c>
       <c r="O37" t="n">
-        <v>0.8560793131157989</v>
+        <v>0.8565217036327434</v>
       </c>
       <c r="P37" t="n">
-        <v>0.8561378423288111</v>
+        <v>0.8566498521998409</v>
       </c>
     </row>
     <row r="38">
@@ -2333,37 +2333,37 @@
         <v>2</v>
       </c>
       <c r="F38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G38" t="n">
-        <v>0.3240653426756895</v>
+        <v>0.3234989792925855</v>
       </c>
       <c r="H38" t="n">
-        <v>0.8526282621589562</v>
+        <v>0.8558255486358245</v>
       </c>
       <c r="I38" t="n">
-        <v>0.8522755893004546</v>
+        <v>0.8554630189544029</v>
       </c>
       <c r="J38" t="n">
-        <v>0.8526510191561872</v>
+        <v>0.8560085402969565</v>
       </c>
       <c r="K38" t="n">
-        <v>0.8523816764209369</v>
+        <v>0.8556524232730254</v>
       </c>
       <c r="L38" t="n">
-        <v>0.3290944271368267</v>
+        <v>0.327965785524807</v>
       </c>
       <c r="M38" t="n">
-        <v>0.8521855188521855</v>
+        <v>0.854076298520743</v>
       </c>
       <c r="N38" t="n">
-        <v>0.8522939107449365</v>
+        <v>0.8541433378973834</v>
       </c>
       <c r="O38" t="n">
-        <v>0.8521864942858612</v>
+        <v>0.8540770636808791</v>
       </c>
       <c r="P38" t="n">
-        <v>0.852240199130703</v>
+        <v>0.8541101995035033</v>
       </c>
     </row>
     <row r="39">
@@ -2386,34 +2386,34 @@
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3122856085019234</v>
+        <v>0.31161860208417</v>
       </c>
       <c r="H39" t="n">
-        <v>0.859806453473046</v>
+        <v>0.8593286625148281</v>
       </c>
       <c r="I39" t="n">
-        <v>0.8595898231107459</v>
+        <v>0.8591062374674886</v>
       </c>
       <c r="J39" t="n">
-        <v>0.8596353569358764</v>
+        <v>0.85928053155883</v>
       </c>
       <c r="K39" t="n">
-        <v>0.8595330318220987</v>
+        <v>0.8591108653182418</v>
       </c>
       <c r="L39" t="n">
-        <v>0.3149934882932913</v>
+        <v>0.3143754066936166</v>
       </c>
       <c r="M39" t="n">
-        <v>0.8551885218551886</v>
+        <v>0.8552997441886331</v>
       </c>
       <c r="N39" t="n">
-        <v>0.8554760389405101</v>
+        <v>0.8556010180022375</v>
       </c>
       <c r="O39" t="n">
-        <v>0.8551901034759856</v>
+        <v>0.8553013629220287</v>
       </c>
       <c r="P39" t="n">
-        <v>0.8553330473113904</v>
+        <v>0.8554511642206689</v>
       </c>
     </row>
     <row r="40">
@@ -2433,37 +2433,37 @@
         <v>2</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G40" t="n">
-        <v>0.3109301986430686</v>
+        <v>0.3107651727796008</v>
       </c>
       <c r="H40" t="n">
-        <v>0.860412959667853</v>
+        <v>0.861108021945433</v>
       </c>
       <c r="I40" t="n">
-        <v>0.8605474183914663</v>
+        <v>0.8613200768672883</v>
       </c>
       <c r="J40" t="n">
-        <v>0.8606269767030988</v>
+        <v>0.8610903466598953</v>
       </c>
       <c r="K40" t="n">
-        <v>0.8605015208915904</v>
+        <v>0.8611171019131842</v>
       </c>
       <c r="L40" t="n">
-        <v>0.3135905458639325</v>
+        <v>0.3123458351280101</v>
       </c>
       <c r="M40" t="n">
-        <v>0.8549660771882994</v>
+        <v>0.8552997441886331</v>
       </c>
       <c r="N40" t="n">
-        <v>0.8551556111627974</v>
+        <v>0.8554858172780118</v>
       </c>
       <c r="O40" t="n">
-        <v>0.8549673619165621</v>
+        <v>0.8553010165506157</v>
       </c>
       <c r="P40" t="n">
-        <v>0.8550614761785013</v>
+        <v>0.8553934069331436</v>
       </c>
     </row>
     <row r="41">
@@ -2486,34 +2486,34 @@
         <v>3</v>
       </c>
       <c r="G41" t="n">
-        <v>0.3063793137374697</v>
+        <v>0.3062034326353525</v>
       </c>
       <c r="H41" t="n">
-        <v>0.8619142941874259</v>
+        <v>0.8619925530512719</v>
       </c>
       <c r="I41" t="n">
-        <v>0.862460167208461</v>
+        <v>0.8625083691997886</v>
       </c>
       <c r="J41" t="n">
-        <v>0.8620549361001648</v>
+        <v>0.8620392736887055</v>
       </c>
       <c r="K41" t="n">
-        <v>0.8621701413977698</v>
+        <v>0.8621847343653692</v>
       </c>
       <c r="L41" t="n">
-        <v>0.3068281316687958</v>
+        <v>0.309060223022406</v>
       </c>
       <c r="M41" t="n">
-        <v>0.8584139695250806</v>
+        <v>0.8568568568568569</v>
       </c>
       <c r="N41" t="n">
-        <v>0.858414384324204</v>
+        <v>0.8568645313249972</v>
       </c>
       <c r="O41" t="n">
-        <v>0.8584140296256417</v>
+        <v>0.8568571148646776</v>
       </c>
       <c r="P41" t="n">
-        <v>0.8584142069748861</v>
+        <v>0.8568608230787894</v>
       </c>
     </row>
     <row r="42">
@@ -2533,37 +2533,37 @@
         <v>2</v>
       </c>
       <c r="F42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3182978396694218</v>
+        <v>0.3204213803252688</v>
       </c>
       <c r="H42" t="n">
-        <v>0.8568212897060761</v>
+        <v>0.8554970673520496</v>
       </c>
       <c r="I42" t="n">
-        <v>0.8563909172877797</v>
+        <v>0.8551485828466145</v>
       </c>
       <c r="J42" t="n">
-        <v>0.85683049243549</v>
+        <v>0.855632954977403</v>
       </c>
       <c r="K42" t="n">
-        <v>0.8565319478737188</v>
+        <v>0.8553092311270261</v>
       </c>
       <c r="L42" t="n">
-        <v>0.3209125312308432</v>
+        <v>0.3245996100694354</v>
       </c>
       <c r="M42" t="n">
-        <v>0.8544099655210766</v>
+        <v>0.8534089645200756</v>
       </c>
       <c r="N42" t="n">
-        <v>0.8545547743638662</v>
+        <v>0.8535697065404646</v>
       </c>
       <c r="O42" t="n">
-        <v>0.854411089427161</v>
+        <v>0.8534101502658153</v>
       </c>
       <c r="P42" t="n">
-        <v>0.8544829258552054</v>
+        <v>0.8534899209460499</v>
       </c>
     </row>
     <row r="43">
@@ -2583,37 +2583,37 @@
         <v>2</v>
       </c>
       <c r="F43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3101818841285872</v>
+        <v>0.3077764622309969</v>
       </c>
       <c r="H43" t="n">
-        <v>0.8600515272835113</v>
+        <v>0.8615806642941874</v>
       </c>
       <c r="I43" t="n">
-        <v>0.8601196189596816</v>
+        <v>0.8614562527420861</v>
       </c>
       <c r="J43" t="n">
-        <v>0.8601848010831969</v>
+        <v>0.8617087517220334</v>
       </c>
       <c r="K43" t="n">
-        <v>0.8600686003673047</v>
+        <v>0.8615006948523354</v>
       </c>
       <c r="L43" t="n">
-        <v>0.313387920966868</v>
+        <v>0.3110335428003603</v>
       </c>
       <c r="M43" t="n">
-        <v>0.857079301523746</v>
+        <v>0.8566344121899677</v>
       </c>
       <c r="N43" t="n">
-        <v>0.8572383281874441</v>
+        <v>0.8568211794892562</v>
       </c>
       <c r="O43" t="n">
-        <v>0.8570804749444816</v>
+        <v>0.8566356845684608</v>
       </c>
       <c r="P43" t="n">
-        <v>0.8571593942984563</v>
+        <v>0.8567284219882306</v>
       </c>
     </row>
     <row r="44">
@@ -2636,34 +2636,34 @@
         <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3050288313392537</v>
+        <v>0.3065677405950032</v>
       </c>
       <c r="H44" t="n">
-        <v>0.8624528387373138</v>
+        <v>0.862609356465006</v>
       </c>
       <c r="I44" t="n">
-        <v>0.8626738643571542</v>
+        <v>0.8630439681472303</v>
       </c>
       <c r="J44" t="n">
-        <v>0.8624274463509395</v>
+        <v>0.8627773888700683</v>
       </c>
       <c r="K44" t="n">
-        <v>0.8624634828456912</v>
+        <v>0.8628252042044966</v>
       </c>
       <c r="L44" t="n">
-        <v>0.3091716671510576</v>
+        <v>0.3095159553731506</v>
       </c>
       <c r="M44" t="n">
-        <v>0.8578578578578578</v>
+        <v>0.8593037481926371</v>
       </c>
       <c r="N44" t="n">
-        <v>0.8579597571152386</v>
+        <v>0.859373983883885</v>
       </c>
       <c r="O44" t="n">
-        <v>0.85785879625048</v>
+        <v>0.8593045257878464</v>
       </c>
       <c r="P44" t="n">
-        <v>0.8579092737125288</v>
+        <v>0.8593392534323375</v>
       </c>
     </row>
     <row r="45">
@@ -2683,37 +2683,37 @@
         <v>2</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2991020836598819</v>
+        <v>0.3002303837588591</v>
       </c>
       <c r="H45" t="n">
-        <v>0.8651167292737577</v>
+        <v>0.8654503591669962</v>
       </c>
       <c r="I45" t="n">
-        <v>0.8655215637309169</v>
+        <v>0.8658562098117688</v>
       </c>
       <c r="J45" t="n">
-        <v>0.8650494999539683</v>
+        <v>0.8655410027809253</v>
       </c>
       <c r="K45" t="n">
-        <v>0.8651945659695657</v>
+        <v>0.8656084745312473</v>
       </c>
       <c r="L45" t="n">
-        <v>0.3053276114337714</v>
+        <v>0.3043565555545856</v>
       </c>
       <c r="M45" t="n">
-        <v>0.8607496385274163</v>
+        <v>0.8588588588588588</v>
       </c>
       <c r="N45" t="n">
-        <v>0.8607541188998322</v>
+        <v>0.8588829686263806</v>
       </c>
       <c r="O45" t="n">
-        <v>0.8607498347313544</v>
+        <v>0.8588593148179671</v>
       </c>
       <c r="P45" t="n">
-        <v>0.8607519768102624</v>
+        <v>0.8588711415593139</v>
       </c>
     </row>
     <row r="46">
@@ -2736,34 +2736,34 @@
         <v>3</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3169931681375716</v>
+        <v>0.3167293873558504</v>
       </c>
       <c r="H46" t="n">
-        <v>0.8575596003031501</v>
+        <v>0.8564094009489918</v>
       </c>
       <c r="I46" t="n">
-        <v>0.8573186964758027</v>
+        <v>0.8559405495236336</v>
       </c>
       <c r="J46" t="n">
-        <v>0.8577134557941385</v>
+        <v>0.8564573695494866</v>
       </c>
       <c r="K46" t="n">
-        <v>0.857432148583129</v>
+        <v>0.856117114788205</v>
       </c>
       <c r="L46" t="n">
-        <v>0.3214971818670579</v>
+        <v>0.3208768679950056</v>
       </c>
       <c r="M46" t="n">
-        <v>0.8539650761872984</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="N46" t="n">
-        <v>0.8542043928811858</v>
+        <v>0.8520544942054555</v>
       </c>
       <c r="O46" t="n">
-        <v>0.8539665217184773</v>
+        <v>0.8518531860232208</v>
       </c>
       <c r="P46" t="n">
-        <v>0.8540854407374695</v>
+        <v>0.8519538282225601</v>
       </c>
     </row>
     <row r="47">
@@ -2783,37 +2783,37 @@
         <v>2</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3074342077130251</v>
+        <v>0.3045650264413867</v>
       </c>
       <c r="H47" t="n">
-        <v>0.8613633929748253</v>
+        <v>0.8633373698431528</v>
       </c>
       <c r="I47" t="n">
-        <v>0.8613820677060576</v>
+        <v>0.8634042850669256</v>
       </c>
       <c r="J47" t="n">
-        <v>0.8612189815341517</v>
+        <v>0.8634216435762003</v>
       </c>
       <c r="K47" t="n">
-        <v>0.8612157396391369</v>
+        <v>0.8633282069660433</v>
       </c>
       <c r="L47" t="n">
-        <v>0.3136039288281542</v>
+        <v>0.309832936467863</v>
       </c>
       <c r="M47" t="n">
-        <v>0.8557446335224113</v>
+        <v>0.8578578578578578</v>
       </c>
       <c r="N47" t="n">
-        <v>0.8561042049482461</v>
+        <v>0.8581209539624095</v>
       </c>
       <c r="O47" t="n">
-        <v>0.8557464007062019</v>
+        <v>0.85785936528923</v>
       </c>
       <c r="P47" t="n">
-        <v>0.8559252654338103</v>
+        <v>0.857990139687178</v>
       </c>
     </row>
     <row r="48">
@@ -2833,37 +2833,37 @@
         <v>2</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G48" t="n">
-        <v>0.3020151312270314</v>
+        <v>0.3021521805809881</v>
       </c>
       <c r="H48" t="n">
-        <v>0.8634485798075656</v>
+        <v>0.8635319872808752</v>
       </c>
       <c r="I48" t="n">
-        <v>0.8635421589260976</v>
+        <v>0.8636564504280677</v>
       </c>
       <c r="J48" t="n">
-        <v>0.8632807743462196</v>
+        <v>0.8635766281914684</v>
       </c>
       <c r="K48" t="n">
-        <v>0.8633307938918718</v>
+        <v>0.8635312392020711</v>
       </c>
       <c r="L48" t="n">
-        <v>0.308738111799916</v>
+        <v>0.3082232564688007</v>
       </c>
       <c r="M48" t="n">
-        <v>0.8567456345234123</v>
+        <v>0.8594149705260816</v>
       </c>
       <c r="N48" t="n">
-        <v>0.8569510768511124</v>
+        <v>0.8595283915419339</v>
       </c>
       <c r="O48" t="n">
-        <v>0.8567469687553193</v>
+        <v>0.8594159584195964</v>
       </c>
       <c r="P48" t="n">
-        <v>0.8568490106481822</v>
+        <v>0.8594721713037389</v>
       </c>
     </row>
     <row r="49">
@@ -2883,37 +2883,37 @@
         <v>2</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G49" t="n">
-        <v>0.296153477223647</v>
+        <v>0.2961282632642334</v>
       </c>
       <c r="H49" t="n">
-        <v>0.8664841999472782</v>
+        <v>0.8659508040068539</v>
       </c>
       <c r="I49" t="n">
-        <v>0.867312469761365</v>
+        <v>0.8665356803015649</v>
       </c>
       <c r="J49" t="n">
-        <v>0.8664338337185673</v>
+        <v>0.8658376598102059</v>
       </c>
       <c r="K49" t="n">
-        <v>0.8667773039963076</v>
+        <v>0.8660959636136063</v>
       </c>
       <c r="L49" t="n">
-        <v>0.3052272812675988</v>
+        <v>0.3063054459732339</v>
       </c>
       <c r="M49" t="n">
-        <v>0.8556334111889667</v>
+        <v>0.8594149705260816</v>
       </c>
       <c r="N49" t="n">
-        <v>0.8556737072371599</v>
+        <v>0.859483009232328</v>
       </c>
       <c r="O49" t="n">
-        <v>0.8556340031826585</v>
+        <v>0.8594157357522594</v>
       </c>
       <c r="P49" t="n">
-        <v>0.8556538547493222</v>
+        <v>0.8594493711758342</v>
       </c>
     </row>
     <row r="50">
@@ -2933,37 +2933,37 @@
         <v>2</v>
       </c>
       <c r="F50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G50" t="n">
-        <v>0.6926148911055976</v>
+        <v>0.6918492593536731</v>
       </c>
       <c r="H50" t="n">
-        <v>0.6594637620271516</v>
+        <v>0.7229471464346909</v>
       </c>
       <c r="I50" t="n">
-        <v>0.7397163868295374</v>
+        <v>0.7511919735130483</v>
       </c>
       <c r="J50" t="n">
-        <v>0.661572740636575</v>
+        <v>0.7244938473530278</v>
       </c>
       <c r="K50" t="n">
-        <v>0.6958546094461927</v>
+        <v>0.7370400035619636</v>
       </c>
       <c r="L50" t="n">
-        <v>0.6925968325152643</v>
+        <v>0.6917927912026721</v>
       </c>
       <c r="M50" t="n">
-        <v>0.6704482260037815</v>
+        <v>0.7140473807140474</v>
       </c>
       <c r="N50" t="n">
-        <v>0.7488212917706218</v>
+        <v>0.7479827021278815</v>
       </c>
       <c r="O50" t="n">
-        <v>0.6704794324654915</v>
+        <v>0.7140679491645521</v>
       </c>
       <c r="P50" t="n">
-        <v>0.7074882245193853</v>
+        <v>0.7306319704407912</v>
       </c>
     </row>
     <row r="51">
@@ -2983,37 +2983,37 @@
         <v>2</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G51" t="n">
-        <v>0.3154764436372599</v>
+        <v>0.3168456668492071</v>
       </c>
       <c r="H51" t="n">
-        <v>0.8578777843679979</v>
+        <v>0.857271278173191</v>
       </c>
       <c r="I51" t="n">
-        <v>0.8575469901631497</v>
+        <v>0.8571894578450712</v>
       </c>
       <c r="J51" t="n">
-        <v>0.8579745050185326</v>
+        <v>0.8574175823158735</v>
       </c>
       <c r="K51" t="n">
-        <v>0.8576779186184974</v>
+        <v>0.8572179621711628</v>
       </c>
       <c r="L51" t="n">
-        <v>0.3190800039626322</v>
+        <v>0.3172171309472032</v>
       </c>
       <c r="M51" t="n">
-        <v>0.8538538538538538</v>
+        <v>0.8541875208541875</v>
       </c>
       <c r="N51" t="n">
-        <v>0.8539546234325984</v>
+        <v>0.8543322395109629</v>
       </c>
       <c r="O51" t="n">
-        <v>0.8538547921969448</v>
+        <v>0.8541886447575202</v>
       </c>
       <c r="P51" t="n">
-        <v>0.8539047048969179</v>
+        <v>0.8542604360999421</v>
       </c>
     </row>
     <row r="52">
@@ -3036,34 +3036,34 @@
         <v>3</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3166539578547099</v>
+        <v>0.3135796243242004</v>
       </c>
       <c r="H52" t="n">
-        <v>0.8583782292078554</v>
+        <v>0.8588838226571768</v>
       </c>
       <c r="I52" t="n">
-        <v>0.8584482516720648</v>
+        <v>0.8590204993035351</v>
       </c>
       <c r="J52" t="n">
-        <v>0.8584166688665341</v>
+        <v>0.8587792557810612</v>
       </c>
       <c r="K52" t="n">
-        <v>0.858344127211088</v>
+        <v>0.8588120434167655</v>
       </c>
       <c r="L52" t="n">
-        <v>0.3179358251281005</v>
+        <v>0.314565399293769</v>
       </c>
       <c r="M52" t="n">
-        <v>0.8535201868535202</v>
+        <v>0.8555221888555222</v>
       </c>
       <c r="N52" t="n">
-        <v>0.8535849748538296</v>
+        <v>0.8555641740594229</v>
       </c>
       <c r="O52" t="n">
-        <v>0.8535209396363694</v>
+        <v>0.8555227932182456</v>
       </c>
       <c r="P52" t="n">
-        <v>0.8535529560440877</v>
+        <v>0.8555434831384582</v>
       </c>
     </row>
     <row r="53">
@@ -3083,37 +3083,37 @@
         <v>2</v>
       </c>
       <c r="F53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3132312924686819</v>
+        <v>0.3120283715342109</v>
       </c>
       <c r="H53" t="n">
-        <v>0.8598342559641492</v>
+        <v>0.8601905397390274</v>
       </c>
       <c r="I53" t="n">
-        <v>0.8604758090022067</v>
+        <v>0.8608294636949926</v>
       </c>
       <c r="J53" t="n">
-        <v>0.859930132363691</v>
+        <v>0.8602276154682617</v>
       </c>
       <c r="K53" t="n">
-        <v>0.8601139269520571</v>
+        <v>0.8604375842908645</v>
       </c>
       <c r="L53" t="n">
-        <v>0.3165309237520972</v>
+        <v>0.3141834306400711</v>
       </c>
       <c r="M53" t="n">
-        <v>0.8541875208541875</v>
+        <v>0.8560783005227449</v>
       </c>
       <c r="N53" t="n">
-        <v>0.8541953563595097</v>
+        <v>0.8562031057726862</v>
       </c>
       <c r="O53" t="n">
-        <v>0.8541872592718679</v>
+        <v>0.8560772596281356</v>
       </c>
       <c r="P53" t="n">
-        <v>0.8541913077965002</v>
+        <v>0.8561401780758027</v>
       </c>
     </row>
     <row r="54">
@@ -3133,37 +3133,37 @@
         <v>2</v>
       </c>
       <c r="F54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3290844917160695</v>
+        <v>0.3305938218256028</v>
       </c>
       <c r="H54" t="n">
-        <v>0.8504092114801635</v>
+        <v>0.8519888048635825</v>
       </c>
       <c r="I54" t="n">
-        <v>0.8503132327652203</v>
+        <v>0.8519641183153418</v>
       </c>
       <c r="J54" t="n">
-        <v>0.8503941992483353</v>
+        <v>0.8519495496066707</v>
       </c>
       <c r="K54" t="n">
-        <v>0.8502705253650247</v>
+        <v>0.8518691903165748</v>
       </c>
       <c r="L54" t="n">
-        <v>0.3324490719832223</v>
+        <v>0.3340779989329905</v>
       </c>
       <c r="M54" t="n">
-        <v>0.8499610721832944</v>
+        <v>0.8515181848515182</v>
       </c>
       <c r="N54" t="n">
-        <v>0.8501896624202023</v>
+        <v>0.8516434697298041</v>
       </c>
       <c r="O54" t="n">
-        <v>0.8499624929241268</v>
+        <v>0.8515192344993845</v>
       </c>
       <c r="P54" t="n">
-        <v>0.8500760624952937</v>
+        <v>0.8515813475834968</v>
       </c>
     </row>
     <row r="55">
@@ -3183,37 +3183,37 @@
         <v>2</v>
       </c>
       <c r="F55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3128850566016068</v>
+        <v>0.3098128703923095</v>
       </c>
       <c r="H55" t="n">
-        <v>0.8582721678529064</v>
+        <v>0.8597230459997364</v>
       </c>
       <c r="I55" t="n">
-        <v>0.8582240721247416</v>
+        <v>0.8598032756386667</v>
       </c>
       <c r="J55" t="n">
-        <v>0.8584526716724946</v>
+        <v>0.8597867167027977</v>
       </c>
       <c r="K55" t="n">
-        <v>0.8582502925726443</v>
+        <v>0.8597090536231073</v>
       </c>
       <c r="L55" t="n">
-        <v>0.3147851418717533</v>
+        <v>0.3126958619687892</v>
       </c>
       <c r="M55" t="n">
-        <v>0.8569680791903014</v>
+        <v>0.8555221888555222</v>
       </c>
       <c r="N55" t="n">
-        <v>0.8571171549260468</v>
+        <v>0.8556674486283824</v>
       </c>
       <c r="O55" t="n">
-        <v>0.8569692154984383</v>
+        <v>0.8555233127753653</v>
       </c>
       <c r="P55" t="n">
-        <v>0.8570431788280618</v>
+        <v>0.8555953746314974</v>
       </c>
     </row>
     <row r="56">
@@ -3233,37 +3233,37 @@
         <v>2</v>
       </c>
       <c r="F56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G56" t="n">
-        <v>0.3030120273217119</v>
+        <v>0.3088007757571161</v>
       </c>
       <c r="H56" t="n">
-        <v>0.8634485798075656</v>
+        <v>0.8608402942533281</v>
       </c>
       <c r="I56" t="n">
-        <v>0.8640207309224786</v>
+        <v>0.8611126598431881</v>
       </c>
       <c r="J56" t="n">
-        <v>0.8633964471602699</v>
+        <v>0.8607418753681705</v>
       </c>
       <c r="K56" t="n">
-        <v>0.8636161039190831</v>
+        <v>0.8608434884756477</v>
       </c>
       <c r="L56" t="n">
-        <v>0.3058411591374644</v>
+        <v>0.3114109922121943</v>
       </c>
       <c r="M56" t="n">
-        <v>0.8589700811923034</v>
+        <v>0.8584139695250806</v>
       </c>
       <c r="N56" t="n">
-        <v>0.8589772924078757</v>
+        <v>0.8584435626102292</v>
       </c>
       <c r="O56" t="n">
-        <v>0.8589698320395536</v>
+        <v>0.8584144749603158</v>
       </c>
       <c r="P56" t="n">
-        <v>0.8589735622075159</v>
+        <v>0.8584290185388656</v>
       </c>
     </row>
     <row r="57">
@@ -3283,37 +3283,37 @@
         <v>2</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G57" t="n">
-        <v>0.3022488336751091</v>
+        <v>0.3031725806992908</v>
       </c>
       <c r="H57" t="n">
-        <v>0.8639160735468565</v>
+        <v>0.8634485798075656</v>
       </c>
       <c r="I57" t="n">
-        <v>0.8647093538097641</v>
+        <v>0.8641338586534385</v>
       </c>
       <c r="J57" t="n">
-        <v>0.863918207474233</v>
+        <v>0.863575041591313</v>
       </c>
       <c r="K57" t="n">
-        <v>0.8642146410699911</v>
+        <v>0.8637635146111505</v>
       </c>
       <c r="L57" t="n">
-        <v>0.3052418428364775</v>
+        <v>0.308312180007944</v>
       </c>
       <c r="M57" t="n">
-        <v>0.8579690801913025</v>
+        <v>0.857079301523746</v>
       </c>
       <c r="N57" t="n">
-        <v>0.8580397315818356</v>
+        <v>0.8571543110372908</v>
       </c>
       <c r="O57" t="n">
-        <v>0.8579682990986426</v>
+        <v>0.8570784956792641</v>
       </c>
       <c r="P57" t="n">
-        <v>0.8580040138534746</v>
+        <v>0.8571164016817349</v>
       </c>
     </row>
     <row r="58">
@@ -3336,34 +3336,34 @@
         <v>3</v>
       </c>
       <c r="G58" t="n">
-        <v>0.3178267945907797</v>
+        <v>0.3191685755678791</v>
       </c>
       <c r="H58" t="n">
-        <v>0.8569376482799527</v>
+        <v>0.8569654507710558</v>
       </c>
       <c r="I58" t="n">
-        <v>0.8565684522264299</v>
+        <v>0.8568291638224832</v>
       </c>
       <c r="J58" t="n">
-        <v>0.8569503515841694</v>
+        <v>0.8570736764571825</v>
       </c>
       <c r="K58" t="n">
-        <v>0.856682098910229</v>
+        <v>0.8568680967693219</v>
       </c>
       <c r="L58" t="n">
-        <v>0.3222641717932864</v>
+        <v>0.323229639600678</v>
       </c>
       <c r="M58" t="n">
-        <v>0.8537426315204093</v>
+        <v>0.8541875208541875</v>
       </c>
       <c r="N58" t="n">
-        <v>0.8540156937548838</v>
+        <v>0.8544697610391612</v>
       </c>
       <c r="O58" t="n">
-        <v>0.8537441760120972</v>
+        <v>0.8541890900921942</v>
       </c>
       <c r="P58" t="n">
-        <v>0.853879913299108</v>
+        <v>0.8543294025136271</v>
       </c>
     </row>
     <row r="59">
@@ -3383,37 +3383,37 @@
         <v>2</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G59" t="n">
-        <v>0.3092050022774392</v>
+        <v>0.3083430317086492</v>
       </c>
       <c r="H59" t="n">
-        <v>0.8612799855015157</v>
+        <v>0.8620358013707659</v>
       </c>
       <c r="I59" t="n">
-        <v>0.8613236022033971</v>
+        <v>0.8620468010464903</v>
       </c>
       <c r="J59" t="n">
-        <v>0.8612392400648853</v>
+        <v>0.8621681078673247</v>
       </c>
       <c r="K59" t="n">
-        <v>0.8611988496320477</v>
+        <v>0.862024485202734</v>
       </c>
       <c r="L59" t="n">
-        <v>0.3136439260177742</v>
+        <v>0.3131377290491958</v>
       </c>
       <c r="M59" t="n">
-        <v>0.8577466355244133</v>
+        <v>0.8563007451896341</v>
       </c>
       <c r="N59" t="n">
-        <v>0.8579722079625827</v>
+        <v>0.8565627030539311</v>
       </c>
       <c r="O59" t="n">
-        <v>0.8577480316207411</v>
+        <v>0.8563022526017441</v>
       </c>
       <c r="P59" t="n">
-        <v>0.8578601051461995</v>
+        <v>0.8564324580263822</v>
       </c>
     </row>
     <row r="60">
@@ -3433,37 +3433,37 @@
         <v>2</v>
       </c>
       <c r="F60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G60" t="n">
-        <v>0.3033898736235681</v>
+        <v>0.3045344416313688</v>
       </c>
       <c r="H60" t="n">
-        <v>0.8634207773164624</v>
+        <v>0.8628925299855015</v>
       </c>
       <c r="I60" t="n">
-        <v>0.8638497228671753</v>
+        <v>0.8632126056543302</v>
       </c>
       <c r="J60" t="n">
-        <v>0.8633314427002095</v>
+        <v>0.8628389986511611</v>
       </c>
       <c r="K60" t="n">
-        <v>0.8635051723051929</v>
+        <v>0.8629370941640451</v>
       </c>
       <c r="L60" t="n">
-        <v>0.3063777288090645</v>
+        <v>0.3083161115490307</v>
       </c>
       <c r="M60" t="n">
-        <v>0.8598598598598599</v>
+        <v>0.859081303525748</v>
       </c>
       <c r="N60" t="n">
-        <v>0.8598702454163805</v>
+        <v>0.8591139255038942</v>
       </c>
       <c r="O60" t="n">
-        <v>0.8598595612364865</v>
+        <v>0.8590818337100534</v>
       </c>
       <c r="P60" t="n">
-        <v>0.8598649032932446</v>
+        <v>0.8590978793072748</v>
       </c>
     </row>
     <row r="61">
@@ -3483,37 +3483,37 @@
         <v>2</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G61" t="n">
-        <v>0.3005321302438331</v>
+        <v>0.3012719535515263</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8644824205878476</v>
+        <v>0.8644165183867142</v>
       </c>
       <c r="I61" t="n">
-        <v>0.8650118844295412</v>
+        <v>0.8650529803767145</v>
       </c>
       <c r="J61" t="n">
-        <v>0.8645174178492158</v>
+        <v>0.8645072691342779</v>
       </c>
       <c r="K61" t="n">
-        <v>0.864677159403372</v>
+        <v>0.8646878242582023</v>
       </c>
       <c r="L61" t="n">
-        <v>0.3037616542281065</v>
+        <v>0.3056137953765879</v>
       </c>
       <c r="M61" t="n">
-        <v>0.8600823045267489</v>
+        <v>0.8586364141919698</v>
       </c>
       <c r="N61" t="n">
-        <v>0.8600849338950003</v>
+        <v>0.8586533004034422</v>
       </c>
       <c r="O61" t="n">
-        <v>0.8600821543510188</v>
+        <v>0.8586367959258805</v>
       </c>
       <c r="P61" t="n">
-        <v>0.8600835441207639</v>
+        <v>0.858645048085351</v>
       </c>
     </row>
     <row r="62">
@@ -3533,37 +3533,37 @@
         <v>2</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G62" t="n">
-        <v>0.3154995287434354</v>
+        <v>0.3155372091864412</v>
       </c>
       <c r="H62" t="n">
-        <v>0.8581887603795968</v>
+        <v>0.8575266492025834</v>
       </c>
       <c r="I62" t="n">
-        <v>0.8579267016046583</v>
+        <v>0.8568602908581987</v>
       </c>
       <c r="J62" t="n">
-        <v>0.8583017234311348</v>
+        <v>0.8575353501224329</v>
       </c>
       <c r="K62" t="n">
-        <v>0.8580305257795969</v>
+        <v>0.8571224977396761</v>
       </c>
       <c r="L62" t="n">
-        <v>0.3201226557705009</v>
+        <v>0.3203799492462704</v>
       </c>
       <c r="M62" t="n">
-        <v>0.8534089645200756</v>
+        <v>0.8541875208541875</v>
       </c>
       <c r="N62" t="n">
-        <v>0.8536688085096142</v>
+        <v>0.8545065158832237</v>
       </c>
       <c r="O62" t="n">
-        <v>0.8534104718964132</v>
+        <v>0.854189189055455</v>
       </c>
       <c r="P62" t="n">
-        <v>0.853539620655648</v>
+        <v>0.8543478230034973</v>
       </c>
     </row>
     <row r="63">
@@ -3583,37 +3583,37 @@
         <v>2</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G63" t="n">
-        <v>0.3036032223507377</v>
+        <v>0.3058216315244527</v>
       </c>
       <c r="H63" t="n">
-        <v>0.8639490246474232</v>
+        <v>0.8625867025833662</v>
       </c>
       <c r="I63" t="n">
-        <v>0.8641615427590221</v>
+        <v>0.8627107690140918</v>
       </c>
       <c r="J63" t="n">
-        <v>0.8637049873564288</v>
+        <v>0.8624472505164581</v>
       </c>
       <c r="K63" t="n">
-        <v>0.8638496587886636</v>
+        <v>0.8624940932036607</v>
       </c>
       <c r="L63" t="n">
-        <v>0.3099508226990075</v>
+        <v>0.3124381345459593</v>
       </c>
       <c r="M63" t="n">
-        <v>0.8583027471916361</v>
+        <v>0.8577466355244133</v>
       </c>
       <c r="N63" t="n">
-        <v>0.858354162276612</v>
+        <v>0.8578121891372107</v>
       </c>
       <c r="O63" t="n">
-        <v>0.8583034134407943</v>
+        <v>0.8577473883595454</v>
       </c>
       <c r="P63" t="n">
-        <v>0.8583287871085697</v>
+        <v>0.8577797875245382</v>
       </c>
     </row>
     <row r="64">
@@ -3633,37 +3633,37 @@
         <v>2</v>
       </c>
       <c r="F64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G64" t="n">
-        <v>0.3009579888608814</v>
+        <v>0.2998157020766325</v>
       </c>
       <c r="H64" t="n">
-        <v>0.8648665068538289</v>
+        <v>0.8638326660735469</v>
       </c>
       <c r="I64" t="n">
-        <v>0.8656278971491658</v>
+        <v>0.8641751562765657</v>
       </c>
       <c r="J64" t="n">
-        <v>0.864944518636347</v>
+        <v>0.8637625186462908</v>
       </c>
       <c r="K64" t="n">
-        <v>0.8651904784870614</v>
+        <v>0.8638810214517824</v>
       </c>
       <c r="L64" t="n">
-        <v>0.3072818703129324</v>
+        <v>0.3081706600505676</v>
       </c>
       <c r="M64" t="n">
-        <v>0.8579690801913025</v>
+        <v>0.8583027471916361</v>
       </c>
       <c r="N64" t="n">
-        <v>0.857985935683786</v>
+        <v>0.8583038372516956</v>
       </c>
       <c r="O64" t="n">
-        <v>0.857969461916958</v>
+        <v>0.8583028444020442</v>
       </c>
       <c r="P64" t="n">
-        <v>0.8579776987212951</v>
+        <v>0.8583033408265828</v>
       </c>
     </row>
     <row r="65">
@@ -3683,37 +3683,37 @@
         <v>2</v>
       </c>
       <c r="F65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
-        <v>0.295372935983996</v>
+        <v>0.2936242576007166</v>
       </c>
       <c r="H65" t="n">
-        <v>0.8675581998813761</v>
+        <v>0.8675911509819428</v>
       </c>
       <c r="I65" t="n">
-        <v>0.8683274291334969</v>
+        <v>0.8683061578511541</v>
       </c>
       <c r="J65" t="n">
-        <v>0.8676581460579026</v>
+        <v>0.8678156649793173</v>
       </c>
       <c r="K65" t="n">
-        <v>0.8678996390724565</v>
+        <v>0.8679703616493251</v>
       </c>
       <c r="L65" t="n">
-        <v>0.3068467465531399</v>
+        <v>0.3060038539888084</v>
       </c>
       <c r="M65" t="n">
-        <v>0.8575241908575242</v>
+        <v>0.8565231898565232</v>
       </c>
       <c r="N65" t="n">
-        <v>0.8575460480021536</v>
+        <v>0.8566593904404068</v>
       </c>
       <c r="O65" t="n">
-        <v>0.857523756130774</v>
+        <v>0.8565242766775263</v>
       </c>
       <c r="P65" t="n">
-        <v>0.857534901921593</v>
+        <v>0.8565918282309538</v>
       </c>
     </row>
   </sheetData>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-11-13 11:19:53</t>
+          <t>2025-11-15 19:25:16</t>
         </is>
       </c>
     </row>
